--- a/09-Programacao-Linear-Inteira/Book1.xlsx
+++ b/09-Programacao-Linear-Inteira/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cintiashinoda/Desktop/[UTFPR]/utfpr_emma-repo/09-Programacao-Linear-Inteira/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D96DF2-17D9-7742-ABA8-2C68B4BF40BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{873123E5-4505-A84E-B776-C516C0CC656B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24020" yWindow="1100" windowWidth="21860" windowHeight="26260" activeTab="3" xr2:uid="{B133C9D0-67B2-C941-B549-F08E9AA8E72F}"/>
   </bookViews>
@@ -51,7 +51,7 @@
     <definedName name="solver_lhs3" localSheetId="0" hidden="1">'P1-Ex1'!$I$6:$I$8</definedName>
     <definedName name="solver_lhs3" localSheetId="1" hidden="1">'P1-Ex2'!$I$6:$I$8</definedName>
     <definedName name="solver_lhs3" localSheetId="2" hidden="1">'P1-Ex3'!$I$5:$I$7</definedName>
-    <definedName name="solver_lhs3" localSheetId="3" hidden="1">'P1-Ex4'!$I$6:$I$7</definedName>
+    <definedName name="solver_lhs3" localSheetId="3" hidden="1">'P1-Ex4'!$I$6:$I$8</definedName>
     <definedName name="solver_lhs4" localSheetId="0" hidden="1">'P1-Ex1'!$I$6:$I$8</definedName>
     <definedName name="solver_lin" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_lin" localSheetId="1" hidden="1">1</definedName>
@@ -121,7 +121,7 @@
     <definedName name="solver_rhs3" localSheetId="0" hidden="1">'P1-Ex1'!$J$6:$J$8</definedName>
     <definedName name="solver_rhs3" localSheetId="1" hidden="1">'P1-Ex2'!$J$6:$J$8</definedName>
     <definedName name="solver_rhs3" localSheetId="2" hidden="1">'P1-Ex3'!$J$5:$J$7</definedName>
-    <definedName name="solver_rhs3" localSheetId="3" hidden="1">'P1-Ex4'!$J$6:$J$7</definedName>
+    <definedName name="solver_rhs3" localSheetId="3" hidden="1">'P1-Ex4'!$J$6:$J$8</definedName>
     <definedName name="solver_rhs4" localSheetId="0" hidden="1">'P1-Ex1'!$J$6:$J$8</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
@@ -185,7 +185,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="138">
   <si>
     <t>Maximizar z = x1 + 5x2 + 9x3 + 5x4</t>
   </si>
@@ -1158,6 +1158,9 @@
   </si>
   <si>
     <t>Z = 13</t>
+  </si>
+  <si>
+    <t>Solução Candidata</t>
   </si>
 </sst>
 </file>
@@ -1365,7 +1368,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1449,6 +1452,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2086,7 +2092,7 @@
       <c r="A9" t="s">
         <v>5</v>
       </c>
-      <c r="T9" s="36" t="s">
+      <c r="T9" s="37" t="s">
         <v>17</v>
       </c>
       <c r="U9" s="33"/>
@@ -2143,10 +2149,10 @@
       <c r="R17" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="S17" s="35"/>
+      <c r="S17" s="36"/>
     </row>
     <row r="18" spans="5:26">
-      <c r="G18" s="66" t="s">
+      <c r="G18" s="67" t="s">
         <v>15</v>
       </c>
       <c r="R18" s="22" t="s">
@@ -2190,10 +2196,10 @@
       <c r="Z21" s="5"/>
     </row>
     <row r="22" spans="5:26">
-      <c r="E22" s="66" t="s">
+      <c r="E22" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="I22" s="66" t="s">
+      <c r="I22" s="67" t="s">
         <v>23</v>
       </c>
       <c r="R22" s="14" t="s">
@@ -2408,7 +2414,7 @@
       <c r="G34" t="s">
         <v>32</v>
       </c>
-      <c r="R34" s="38" t="s">
+      <c r="R34" s="39" t="s">
         <v>56</v>
       </c>
       <c r="S34" s="31"/>
@@ -2607,7 +2613,7 @@
       <c r="L43" s="5"/>
       <c r="M43" s="5"/>
       <c r="N43" s="5"/>
-      <c r="P43" s="37" t="s">
+      <c r="P43" s="38" t="s">
         <v>55</v>
       </c>
       <c r="R43" s="30"/>
@@ -3005,43 +3011,43 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="10" width="10.83203125" style="40"/>
-    <col min="11" max="11" width="5.6640625" style="40" customWidth="1"/>
-    <col min="12" max="12" width="18.83203125" style="48" customWidth="1"/>
-    <col min="13" max="13" width="2.83203125" style="40" customWidth="1"/>
-    <col min="14" max="14" width="18.83203125" style="40" customWidth="1"/>
-    <col min="15" max="15" width="2.83203125" style="40" customWidth="1"/>
-    <col min="16" max="16" width="18.83203125" style="48" customWidth="1"/>
-    <col min="17" max="17" width="2.83203125" style="40" customWidth="1"/>
-    <col min="18" max="18" width="18.83203125" style="40" customWidth="1"/>
-    <col min="19" max="19" width="2.83203125" style="40" customWidth="1"/>
-    <col min="20" max="20" width="18.83203125" style="48" customWidth="1"/>
-    <col min="21" max="16384" width="10.83203125" style="40"/>
+    <col min="1" max="10" width="10.83203125" style="41"/>
+    <col min="11" max="11" width="5.6640625" style="41" customWidth="1"/>
+    <col min="12" max="12" width="18.83203125" style="49" customWidth="1"/>
+    <col min="13" max="13" width="2.83203125" style="41" customWidth="1"/>
+    <col min="14" max="14" width="18.83203125" style="41" customWidth="1"/>
+    <col min="15" max="15" width="2.83203125" style="41" customWidth="1"/>
+    <col min="16" max="16" width="18.83203125" style="49" customWidth="1"/>
+    <col min="17" max="17" width="2.83203125" style="41" customWidth="1"/>
+    <col min="18" max="18" width="18.83203125" style="41" customWidth="1"/>
+    <col min="19" max="19" width="2.83203125" style="41" customWidth="1"/>
+    <col min="20" max="20" width="18.83203125" style="49" customWidth="1"/>
+    <col min="21" max="16384" width="10.83203125" style="41"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="17" thickBot="1">
-      <c r="G1" s="40" t="s">
+      <c r="G1" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="41">
+      <c r="H1" s="42">
         <f>SUMPRODUCT(E2:H2,E4:H4)</f>
         <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="40">
+      <c r="E2" s="41">
         <v>7</v>
       </c>
-      <c r="F2" s="40">
+      <c r="F2" s="41">
         <v>9</v>
       </c>
-      <c r="G2" s="40">
+      <c r="G2" s="41">
         <v>1</v>
       </c>
-      <c r="H2" s="40">
+      <c r="H2" s="41">
         <v>6</v>
       </c>
       <c r="R2" s="24" t="s">
@@ -3049,141 +3055,141 @@
       </c>
     </row>
     <row r="3" spans="1:20">
-      <c r="E3" s="42" t="s">
+      <c r="E3" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="42" t="s">
+      <c r="F3" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="42" t="s">
+      <c r="G3" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="42" t="s">
+      <c r="H3" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="R3" s="45" t="s">
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="R3" s="46" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:20">
-      <c r="E4" s="43">
+      <c r="E4" s="44">
         <v>1</v>
       </c>
-      <c r="F4" s="43">
+      <c r="F4" s="44">
         <v>2</v>
       </c>
-      <c r="G4" s="43">
+      <c r="G4" s="44">
         <v>0</v>
       </c>
-      <c r="H4" s="43">
+      <c r="H4" s="44">
         <v>2</v>
       </c>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="R4" s="45" t="s">
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="R4" s="46" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:20">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42" t="s">
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="42" t="s">
+      <c r="J5" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="R5" s="46" t="s">
+      <c r="R5" s="47" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:20">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="E6" s="42">
+      <c r="E6" s="43">
         <v>8</v>
       </c>
-      <c r="F6" s="42">
+      <c r="F6" s="43">
         <v>2</v>
       </c>
-      <c r="G6" s="42">
+      <c r="G6" s="43">
         <v>4</v>
       </c>
-      <c r="H6" s="42">
+      <c r="H6" s="43">
         <v>2</v>
       </c>
-      <c r="I6" s="42">
+      <c r="I6" s="43">
         <f>SUMPRODUCT(E6:H6,E4:H4)</f>
         <v>16</v>
       </c>
-      <c r="J6" s="42">
+      <c r="J6" s="43">
         <v>16</v>
       </c>
-      <c r="R6" s="45" t="s">
+      <c r="R6" s="46" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="17" thickBot="1">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="E7" s="42">
+      <c r="E7" s="43">
         <v>4</v>
       </c>
-      <c r="F7" s="42">
+      <c r="F7" s="43">
         <v>8</v>
       </c>
-      <c r="G7" s="42">
+      <c r="G7" s="43">
         <v>2</v>
       </c>
-      <c r="H7" s="42">
+      <c r="H7" s="43">
         <v>0</v>
       </c>
-      <c r="I7" s="42">
+      <c r="I7" s="43">
         <f>SUMPRODUCT(E7:H7,E4:H4)</f>
         <v>20</v>
       </c>
-      <c r="J7" s="42">
+      <c r="J7" s="43">
         <v>20</v>
       </c>
-      <c r="R7" s="47" t="s">
+      <c r="R7" s="48" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="17" thickBot="1">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="E8" s="42">
+      <c r="E8" s="43">
         <v>7</v>
       </c>
-      <c r="F8" s="42">
+      <c r="F8" s="43">
         <v>0</v>
       </c>
-      <c r="G8" s="42">
+      <c r="G8" s="43">
         <v>6</v>
       </c>
-      <c r="H8" s="42">
+      <c r="H8" s="43">
         <v>2</v>
       </c>
-      <c r="I8" s="42">
+      <c r="I8" s="43">
         <f>SUMPRODUCT(E8:H8,E4:H4)</f>
         <v>11</v>
       </c>
-      <c r="J8" s="42">
+      <c r="J8" s="43">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:20">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="41" t="s">
         <v>61</v>
       </c>
       <c r="P9" s="17" t="s">
@@ -3194,58 +3200,58 @@
       </c>
     </row>
     <row r="10" spans="1:20">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="P10" s="49" t="s">
+      <c r="P10" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="T10" s="49" t="s">
+      <c r="T10" s="50" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:20">
-      <c r="P11" s="50" t="s">
+      <c r="P11" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="T11" s="53" t="s">
+      <c r="T11" s="54" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:20">
-      <c r="P12" s="50" t="s">
+      <c r="P12" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="T12" s="53" t="s">
+      <c r="T12" s="54" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:20">
-      <c r="P13" s="50" t="s">
+      <c r="P13" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="T13" s="53" t="s">
+      <c r="T13" s="54" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:20">
-      <c r="P14" s="50" t="s">
+      <c r="P14" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="T14" s="53" t="s">
+      <c r="T14" s="54" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="17" thickBot="1">
-      <c r="P15" s="51" t="s">
+      <c r="P15" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="T15" s="54" t="s">
+      <c r="T15" s="55" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="17" thickBot="1">
-      <c r="T16" s="52" t="s">
+      <c r="T16" s="53" t="s">
         <v>55</v>
       </c>
     </row>
@@ -3258,63 +3264,63 @@
       </c>
     </row>
     <row r="18" spans="8:16">
-      <c r="N18" s="55" t="s">
+      <c r="N18" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="P18" s="55" t="s">
+      <c r="P18" s="56" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="19" spans="8:16">
-      <c r="N19" s="50" t="s">
+      <c r="N19" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="P19" s="53" t="s">
+      <c r="P19" s="54" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="20" spans="8:16">
-      <c r="N20" s="50" t="s">
+      <c r="N20" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="P20" s="53" t="s">
+      <c r="P20" s="54" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="21" spans="8:16">
-      <c r="N21" s="56" t="s">
+      <c r="N21" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="P21" s="53" t="s">
+      <c r="P21" s="54" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="22" spans="8:16">
-      <c r="N22" s="50" t="s">
+      <c r="N22" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="P22" s="53" t="s">
+      <c r="P22" s="54" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="23" spans="8:16">
-      <c r="N23" s="50" t="s">
+      <c r="N23" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="P23" s="53" t="s">
+      <c r="P23" s="54" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="24" spans="8:16" ht="17" thickBot="1">
-      <c r="N24" s="57" t="s">
+      <c r="N24" s="58" t="s">
         <v>73</v>
       </c>
-      <c r="P24" s="54" t="s">
+      <c r="P24" s="55" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="25" spans="8:16">
-      <c r="P25" s="52" t="s">
+      <c r="P25" s="53" t="s">
         <v>55</v>
       </c>
     </row>
@@ -3323,88 +3329,88 @@
       <c r="L27" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="N27" s="63" t="s">
+      <c r="N27" s="64" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="28" spans="8:16">
-      <c r="L28" s="56" t="s">
+      <c r="L28" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="N28" s="60" t="s">
+      <c r="N28" s="61" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="29" spans="8:16">
-      <c r="H29" s="44"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="44"/>
-      <c r="K29" s="44"/>
-      <c r="L29" s="58" t="s">
+      <c r="H29" s="45"/>
+      <c r="I29" s="45"/>
+      <c r="J29" s="45"/>
+      <c r="K29" s="45"/>
+      <c r="L29" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="N29" s="61" t="s">
+      <c r="N29" s="62" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="30" spans="8:16">
-      <c r="H30" s="44"/>
-      <c r="I30" s="44"/>
-      <c r="J30" s="44"/>
-      <c r="K30" s="44"/>
-      <c r="L30" s="58" t="s">
+      <c r="H30" s="45"/>
+      <c r="I30" s="45"/>
+      <c r="J30" s="45"/>
+      <c r="K30" s="45"/>
+      <c r="L30" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="N30" s="61" t="s">
+      <c r="N30" s="62" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="31" spans="8:16">
-      <c r="H31" s="44"/>
-      <c r="I31" s="44"/>
-      <c r="J31" s="44"/>
-      <c r="K31" s="44"/>
-      <c r="L31" s="58" t="s">
+      <c r="H31" s="45"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="45"/>
+      <c r="K31" s="45"/>
+      <c r="L31" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="N31" s="61" t="s">
+      <c r="N31" s="62" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="32" spans="8:16">
-      <c r="H32" s="44"/>
-      <c r="I32" s="44"/>
-      <c r="J32" s="44"/>
-      <c r="K32" s="44"/>
-      <c r="L32" s="58" t="s">
+      <c r="H32" s="45"/>
+      <c r="I32" s="45"/>
+      <c r="J32" s="45"/>
+      <c r="K32" s="45"/>
+      <c r="L32" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="N32" s="61" t="s">
+      <c r="N32" s="62" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="33" spans="8:14">
-      <c r="H33" s="44"/>
-      <c r="I33" s="44"/>
-      <c r="J33" s="44"/>
-      <c r="K33" s="44"/>
-      <c r="L33" s="58" t="s">
+      <c r="H33" s="45"/>
+      <c r="I33" s="45"/>
+      <c r="J33" s="45"/>
+      <c r="K33" s="45"/>
+      <c r="L33" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="N33" s="61" t="s">
+      <c r="N33" s="62" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="34" spans="8:14" ht="17" thickBot="1">
-      <c r="L34" s="59" t="s">
+      <c r="L34" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="N34" s="62" t="s">
+      <c r="N34" s="63" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="35" spans="8:14">
-      <c r="N35" s="65" t="s">
+      <c r="N35" s="66" t="s">
         <v>56</v>
       </c>
     </row>
@@ -3439,51 +3445,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="17" thickBot="1">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="I1" s="40" t="s">
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="I1" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="41">
+      <c r="J1" s="42">
         <f>SUMPRODUCT(E2:G2,E4:G4)</f>
         <v>18.5</v>
       </c>
     </row>
     <row r="2" spans="1:22">
-      <c r="E2" s="40">
+      <c r="E2" s="41">
         <v>3</v>
       </c>
-      <c r="F2" s="40">
+      <c r="F2" s="41">
         <v>4</v>
       </c>
-      <c r="G2" s="40">
+      <c r="G2" s="41">
         <v>3</v>
       </c>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
       <c r="R2" s="17" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:22">
-      <c r="E3" s="42" t="s">
+      <c r="E3" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="42" t="s">
+      <c r="F3" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="42" t="s">
+      <c r="G3" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="64"/>
-      <c r="I3" s="42" t="s">
+      <c r="H3" s="65"/>
+      <c r="I3" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="42" t="s">
+      <c r="J3" s="43" t="s">
         <v>12</v>
       </c>
       <c r="R3" s="18" t="s">
@@ -3494,41 +3500,41 @@
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="43">
+      <c r="E4" s="44">
         <v>3.5</v>
       </c>
-      <c r="F4" s="43">
+      <c r="F4" s="44">
         <v>2</v>
       </c>
-      <c r="G4" s="43">
+      <c r="G4" s="44">
         <v>0</v>
       </c>
-      <c r="H4" s="64"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
       <c r="R4" s="21" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:22">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="E5" s="42">
+      <c r="E5" s="43">
         <v>3</v>
       </c>
-      <c r="F5" s="42">
+      <c r="F5" s="43">
         <v>2</v>
       </c>
-      <c r="G5" s="42">
+      <c r="G5" s="43">
         <v>2</v>
       </c>
-      <c r="H5" s="64"/>
+      <c r="H5" s="65"/>
       <c r="I5" s="9">
         <f>SUMPRODUCT(E5:G5,E4:G4)</f>
         <v>14.5</v>
       </c>
-      <c r="J5" s="64">
+      <c r="J5" s="65">
         <v>13</v>
       </c>
       <c r="R5" s="18" t="s">
@@ -3536,24 +3542,24 @@
       </c>
     </row>
     <row r="6" spans="1:22" ht="17" thickBot="1">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="E6" s="42">
+      <c r="E6" s="43">
         <v>2</v>
       </c>
-      <c r="F6" s="42">
+      <c r="F6" s="43">
         <v>5</v>
       </c>
-      <c r="G6" s="42">
+      <c r="G6" s="43">
         <v>3</v>
       </c>
-      <c r="H6" s="64"/>
-      <c r="I6" s="48">
+      <c r="H6" s="65"/>
+      <c r="I6" s="49">
         <f>SUMPRODUCT(E6:G6,E4:G4)</f>
         <v>17</v>
       </c>
-      <c r="J6" s="42">
+      <c r="J6" s="43">
         <v>15</v>
       </c>
       <c r="R6" s="20" t="s">
@@ -3561,37 +3567,37 @@
       </c>
     </row>
     <row r="7" spans="1:22" ht="17" thickBot="1">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="E7" s="42">
+      <c r="E7" s="43">
         <v>2</v>
       </c>
-      <c r="F7" s="42">
+      <c r="F7" s="43">
         <v>1</v>
       </c>
-      <c r="G7" s="42">
+      <c r="G7" s="43">
         <v>2</v>
       </c>
-      <c r="H7" s="64"/>
-      <c r="I7" s="48">
+      <c r="H7" s="65"/>
+      <c r="I7" s="49">
         <f>SUMPRODUCT(E7:G7,E4:G4)</f>
         <v>9</v>
       </c>
-      <c r="J7" s="42">
+      <c r="J7" s="43">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:22">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
       <c r="P8" s="17" t="s">
         <v>17</v>
       </c>
@@ -3600,7 +3606,7 @@
       </c>
     </row>
     <row r="9" spans="1:22">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="40" t="s">
         <v>87</v>
       </c>
       <c r="P9" s="21" t="s">
@@ -3653,7 +3659,7 @@
       <c r="T15" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="V15" s="69" t="s">
+      <c r="V15" s="70" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3728,10 +3734,10 @@
       </c>
     </row>
     <row r="21" spans="14:22" ht="17" thickBot="1">
-      <c r="N21" s="67" t="s">
+      <c r="N21" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="P21" s="68" t="s">
+      <c r="P21" s="69" t="s">
         <v>108</v>
       </c>
       <c r="T21" s="20" t="s">
@@ -3742,7 +3748,7 @@
       </c>
     </row>
     <row r="22" spans="14:22">
-      <c r="V22" s="70" t="s">
+      <c r="V22" s="71" t="s">
         <v>56</v>
       </c>
     </row>
@@ -3828,14 +3834,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D490FA9-758B-DC4C-B261-6C467E6A72CA}">
-  <dimension ref="A1:V22"/>
+  <dimension ref="A1:V24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="M1" zoomScale="140" workbookViewId="0">
-      <selection activeCell="R29" sqref="R29"/>
+      <selection activeCell="S29" sqref="S29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
+    <col min="13" max="13" width="5.83203125" customWidth="1"/>
     <col min="14" max="14" width="18.83203125" style="9" customWidth="1"/>
     <col min="15" max="15" width="2.83203125" style="9" customWidth="1"/>
     <col min="16" max="16" width="18.83203125" style="9" customWidth="1"/>
@@ -3845,301 +3852,328 @@
     <col min="20" max="20" width="18.83203125" style="9" customWidth="1"/>
     <col min="21" max="21" width="2.83203125" customWidth="1"/>
     <col min="22" max="22" width="18.83203125" style="9" customWidth="1"/>
+    <col min="23" max="23" width="5.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="17" thickBot="1">
-      <c r="A1" s="39"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="I1" s="40" t="s">
+    <row r="1" spans="1:20" ht="17" thickBot="1">
+      <c r="A1" s="40"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="I1" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="41">
+      <c r="J1" s="42">
         <f>SUMPRODUCT(E2:G2,E5:G5)</f>
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
-      <c r="A2" s="39" t="s">
+    <row r="2" spans="1:20">
+      <c r="A2" s="40" t="s">
         <v>123</v>
       </c>
-      <c r="E2" s="42">
+      <c r="E2" s="43">
         <v>2</v>
       </c>
-      <c r="F2" s="42">
+      <c r="F2" s="43">
         <v>3</v>
       </c>
-      <c r="G2" s="42">
+      <c r="G2" s="43">
         <v>5</v>
       </c>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="R2" s="71" t="s">
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="R2" s="72" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
-      <c r="A3" s="39"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
+    <row r="3" spans="1:20">
+      <c r="A3" s="40"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
       <c r="R3" s="11" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
-      <c r="E4" s="42" t="s">
+    <row r="4" spans="1:20">
+      <c r="E4" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="42" t="s">
+      <c r="F4" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="42" t="s">
+      <c r="G4" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="64"/>
-      <c r="I4" s="42" t="s">
+      <c r="H4" s="65"/>
+      <c r="I4" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="42" t="s">
+      <c r="J4" s="43" t="s">
         <v>12</v>
       </c>
       <c r="R4" s="11" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:20">
       <c r="A5" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="43">
+      <c r="E5" s="44">
         <v>2</v>
       </c>
-      <c r="F5" s="43">
+      <c r="F5" s="44">
         <v>3</v>
       </c>
-      <c r="G5" s="43">
+      <c r="G5" s="44">
         <v>0</v>
       </c>
-      <c r="H5" s="64"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
       <c r="R5" s="21" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="17" thickBot="1">
-      <c r="A6" s="39" t="s">
+    <row r="6" spans="1:20" ht="17" thickBot="1">
+      <c r="A6" s="40" t="s">
         <v>124</v>
       </c>
-      <c r="E6" s="42">
+      <c r="E6" s="43">
         <v>1</v>
       </c>
-      <c r="F6" s="42">
+      <c r="F6" s="43">
         <v>2</v>
       </c>
-      <c r="G6" s="42">
+      <c r="G6" s="43">
         <v>3</v>
       </c>
-      <c r="H6" s="64"/>
+      <c r="H6" s="65"/>
       <c r="I6" s="9">
         <f>SUMPRODUCT(E6:G6,E5:G5)</f>
         <v>8</v>
       </c>
-      <c r="J6" s="64">
+      <c r="J6" s="65">
         <v>7</v>
       </c>
       <c r="R6" s="12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="17" thickBot="1">
-      <c r="A7" s="39" t="s">
+    <row r="7" spans="1:20">
+      <c r="A7" s="40"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="65"/>
+      <c r="R7" s="35" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="17" thickBot="1">
+      <c r="A8" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="E7" s="42">
+      <c r="E8" s="43">
         <v>3</v>
       </c>
-      <c r="F7" s="42">
+      <c r="F8" s="43">
         <v>2</v>
       </c>
-      <c r="G7" s="42">
+      <c r="G8" s="43">
         <v>3</v>
       </c>
-      <c r="H7" s="64"/>
-      <c r="I7" s="48">
-        <f>SUMPRODUCT(E7:G7,E5:G5)</f>
+      <c r="H8" s="65"/>
+      <c r="I8" s="49">
+        <f>SUMPRODUCT(E8:G8,E5:G5)</f>
         <v>12</v>
       </c>
-      <c r="J7" s="42">
+      <c r="J8" s="43">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
-      <c r="A8" s="39" t="s">
+    <row r="9" spans="1:20">
+      <c r="A9" s="40" t="s">
         <v>126</v>
       </c>
-      <c r="H8" s="64"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="42"/>
-      <c r="P8" s="17" t="s">
+      <c r="H9" s="65"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="43"/>
+      <c r="P9" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="T8" s="17" t="s">
+      <c r="T9" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
-      <c r="A9" s="39" t="s">
+    <row r="10" spans="1:20">
+      <c r="A10" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
-      <c r="P9" s="21" t="s">
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
+      <c r="P10" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="T9" s="21" t="s">
+      <c r="T10" s="21" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
-      <c r="A10" s="39"/>
-      <c r="P10" s="18" t="s">
+    <row r="11" spans="1:20">
+      <c r="A11" s="40"/>
+      <c r="P11" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="T10" s="18" t="s">
+      <c r="T11" s="18" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
-      <c r="P11" s="18" t="s">
+    <row r="12" spans="1:20">
+      <c r="P12" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="T11" s="19" t="s">
+      <c r="T12" s="19" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
-      <c r="P12" s="18" t="s">
+    <row r="13" spans="1:20">
+      <c r="P13" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="T12" s="18" t="s">
+      <c r="T13" s="18" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="17" thickBot="1">
-      <c r="P13" s="72" t="s">
+    <row r="14" spans="1:20" ht="17" thickBot="1">
+      <c r="P14" s="73" t="s">
         <v>130</v>
       </c>
-      <c r="T13" s="20" t="s">
+      <c r="T14" s="20" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="17" thickBot="1"/>
-    <row r="16" spans="1:22">
-      <c r="N16" s="71" t="s">
+    <row r="16" spans="1:20" ht="17" thickBot="1"/>
+    <row r="17" spans="14:22">
+      <c r="N17" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="P16" s="71" t="s">
+      <c r="P17" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="T16" s="17" t="s">
+      <c r="T17" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="V16" s="17" t="s">
+      <c r="V17" s="17" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="14:22">
-      <c r="N17" s="19" t="s">
+    <row r="18" spans="14:22">
+      <c r="N18" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="P17" s="19" t="s">
+      <c r="P18" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="T17" s="19" t="s">
+      <c r="T18" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="V17" s="19" t="s">
+      <c r="V18" s="19" t="s">
         <v>134</v>
-      </c>
-    </row>
-    <row r="18" spans="14:22">
-      <c r="N18" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="P18" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="T18" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="V18" s="11" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="19" spans="14:22">
       <c r="N19" s="11" t="s">
-        <v>132</v>
+        <v>41</v>
       </c>
       <c r="P19" s="11" t="s">
-        <v>132</v>
+        <v>41</v>
       </c>
       <c r="T19" s="11" t="s">
-        <v>135</v>
+        <v>42</v>
       </c>
       <c r="V19" s="11" t="s">
-        <v>136</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="14:22">
       <c r="N20" s="11" t="s">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="P20" s="11" t="s">
-        <v>94</v>
+        <v>132</v>
       </c>
       <c r="T20" s="11" t="s">
-        <v>46</v>
+        <v>135</v>
       </c>
       <c r="V20" s="11" t="s">
-        <v>94</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="14:22">
       <c r="N21" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="P21" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="T21" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="V21" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="14:22">
+      <c r="N22" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="P21" s="11" t="s">
+      <c r="P22" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="T21" s="11" t="s">
+      <c r="T22" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="V21" s="11" t="s">
+      <c r="V22" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="14:22" ht="17" thickBot="1">
-      <c r="N22" s="12" t="s">
+    <row r="23" spans="14:22" ht="17" thickBot="1">
+      <c r="N23" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="P22" s="12" t="s">
+      <c r="P23" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="T22" s="12" t="s">
+      <c r="T23" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="V22" s="12" t="s">
+      <c r="V23" s="12" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="14:22">
+      <c r="N24" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="P24" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="T24" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="V24" s="9" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/09-Programacao-Linear-Inteira/Book1.xlsx
+++ b/09-Programacao-Linear-Inteira/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cintiashinoda/Desktop/[UTFPR]/utfpr_emma-repo/09-Programacao-Linear-Inteira/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{873123E5-4505-A84E-B776-C516C0CC656B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{555D04D1-78BD-2048-A3FF-594316B0156A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24020" yWindow="1100" windowWidth="21860" windowHeight="26260" activeTab="3" xr2:uid="{B133C9D0-67B2-C941-B549-F08E9AA8E72F}"/>
+    <workbookView xWindow="14260" yWindow="1100" windowWidth="31600" windowHeight="27400" activeTab="3" xr2:uid="{B133C9D0-67B2-C941-B549-F08E9AA8E72F}"/>
   </bookViews>
   <sheets>
     <sheet name="P1-Ex1" sheetId="1" r:id="rId1"/>
@@ -43,15 +43,15 @@
     <definedName name="solver_lhs1" localSheetId="0" hidden="1">'P1-Ex1'!$G$4</definedName>
     <definedName name="solver_lhs1" localSheetId="1" hidden="1">'P1-Ex2'!$E$4</definedName>
     <definedName name="solver_lhs1" localSheetId="2" hidden="1">'P1-Ex3'!$E$4</definedName>
-    <definedName name="solver_lhs1" localSheetId="3" hidden="1">'P1-Ex4'!$E$5</definedName>
+    <definedName name="solver_lhs1" localSheetId="3" hidden="1">'P1-Ex4'!$I$6:$I$7</definedName>
     <definedName name="solver_lhs2" localSheetId="0" hidden="1">'P1-Ex1'!$H$4</definedName>
-    <definedName name="solver_lhs2" localSheetId="1" hidden="1">'P1-Ex2'!$H$4</definedName>
-    <definedName name="solver_lhs2" localSheetId="2" hidden="1">'P1-Ex3'!$F$4</definedName>
+    <definedName name="solver_lhs2" localSheetId="1" hidden="1">'P1-Ex2'!$F$4</definedName>
+    <definedName name="solver_lhs2" localSheetId="2" hidden="1">'P1-Ex3'!$G$4</definedName>
     <definedName name="solver_lhs2" localSheetId="3" hidden="1">'P1-Ex4'!$F$5</definedName>
     <definedName name="solver_lhs3" localSheetId="0" hidden="1">'P1-Ex1'!$I$6:$I$8</definedName>
     <definedName name="solver_lhs3" localSheetId="1" hidden="1">'P1-Ex2'!$I$6:$I$8</definedName>
     <definedName name="solver_lhs3" localSheetId="2" hidden="1">'P1-Ex3'!$I$5:$I$7</definedName>
-    <definedName name="solver_lhs3" localSheetId="3" hidden="1">'P1-Ex4'!$I$6:$I$8</definedName>
+    <definedName name="solver_lhs3" localSheetId="3" hidden="1">'P1-Ex4'!$I$6:$I$7</definedName>
     <definedName name="solver_lhs4" localSheetId="0" hidden="1">'P1-Ex1'!$I$6:$I$8</definedName>
     <definedName name="solver_lin" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_lin" localSheetId="1" hidden="1">1</definedName>
@@ -84,7 +84,7 @@
     <definedName name="solver_num" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_num" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_num" localSheetId="2" hidden="1">3</definedName>
-    <definedName name="solver_num" localSheetId="3" hidden="1">3</definedName>
+    <definedName name="solver_num" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">'P1-Ex1'!$H$1</definedName>
     <definedName name="solver_opt" localSheetId="1" hidden="1">'P1-Ex2'!$H$1</definedName>
     <definedName name="solver_opt" localSheetId="2" hidden="1">'P1-Ex3'!$J$1</definedName>
@@ -98,11 +98,11 @@
     <definedName name="solver_rbv" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rel1" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_rel1" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_rel1" localSheetId="3" hidden="1">3</definedName>
-    <definedName name="solver_rel2" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_rel2" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="3" hidden="1">3</definedName>
     <definedName name="solver_rel3" localSheetId="0" hidden="1">1</definedName>
@@ -111,17 +111,17 @@
     <definedName name="solver_rel3" localSheetId="3" hidden="1">3</definedName>
     <definedName name="solver_rel4" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_rhs1" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rhs1" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_rhs1" localSheetId="2" hidden="1">3</definedName>
-    <definedName name="solver_rhs1" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_rhs2" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rhs2" localSheetId="1" hidden="1">5</definedName>
+    <definedName name="solver_rhs1" localSheetId="3" hidden="1">'P1-Ex4'!$J$6:$J$7</definedName>
+    <definedName name="solver_rhs2" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rhs2" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_rhs2" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rhs2" localSheetId="3" hidden="1">3</definedName>
     <definedName name="solver_rhs3" localSheetId="0" hidden="1">'P1-Ex1'!$J$6:$J$8</definedName>
     <definedName name="solver_rhs3" localSheetId="1" hidden="1">'P1-Ex2'!$J$6:$J$8</definedName>
     <definedName name="solver_rhs3" localSheetId="2" hidden="1">'P1-Ex3'!$J$5:$J$7</definedName>
-    <definedName name="solver_rhs3" localSheetId="3" hidden="1">'P1-Ex4'!$J$6:$J$8</definedName>
+    <definedName name="solver_rhs3" localSheetId="3" hidden="1">'P1-Ex4'!$J$6:$J$7</definedName>
     <definedName name="solver_rhs4" localSheetId="0" hidden="1">'P1-Ex1'!$J$6:$J$8</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
@@ -185,7 +185,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="170">
   <si>
     <t>Maximizar z = x1 + 5x2 + 9x3 + 5x4</t>
   </si>
@@ -320,6 +320,12 @@
   </si>
   <si>
     <t>x3 = 1,11</t>
+  </si>
+  <si>
+    <t>Z = 24</t>
+  </si>
+  <si>
+    <t>x3 &lt;= 1</t>
   </si>
   <si>
     <t>x1 = 0</t>
@@ -844,12 +850,6 @@
     <t>Z = 16,8</t>
   </si>
   <si>
-    <t>x1 = 1,80</t>
-  </si>
-  <si>
-    <t>x3 = 3,80</t>
-  </si>
-  <si>
     <t>Z = 17,5</t>
   </si>
   <si>
@@ -889,250 +889,15 @@
     <t>x1 = 1,67</t>
   </si>
   <si>
+    <t>x3 = 2</t>
+  </si>
+  <si>
     <t>x3 = 4</t>
   </si>
   <si>
-    <t>x3 &lt;= 2</t>
-  </si>
-  <si>
-    <t>x3 &gt;= 3</t>
-  </si>
-  <si>
     <t>x1 = 3,5</t>
   </si>
   <si>
-    <r>
-      <t>Minimizar z = 2x</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t xml:space="preserve">1 </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>+ 3x</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t xml:space="preserve">2 </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>+ 5x</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>3</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t xml:space="preserve">1 </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>+ 2x</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t xml:space="preserve">2 </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>+ 3x</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t xml:space="preserve">3 </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>≥ 7</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>3x</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t xml:space="preserve">1 </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>+ 2x</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t xml:space="preserve">2 </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>+ 3x</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t xml:space="preserve">3 </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>≥ 11</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>, x</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t xml:space="preserve">3 </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>≥ 0 e inteiras</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t xml:space="preserve">2 </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>≥ 0.</t>
-    </r>
-  </si>
-  <si>
     <t>Z = 11,5</t>
   </si>
   <si>
@@ -1161,13 +926,127 @@
   </si>
   <si>
     <t>Solução Candidata</t>
+  </si>
+  <si>
+    <t>Subproblema 11</t>
+  </si>
+  <si>
+    <t>Subproblema 12</t>
+  </si>
+  <si>
+    <t>Subproblema 13</t>
+  </si>
+  <si>
+    <t>Subproblema 14</t>
+  </si>
+  <si>
+    <t>Solução 11</t>
+  </si>
+  <si>
+    <t>Solução 12</t>
+  </si>
+  <si>
+    <t>x3 &gt;= 2</t>
+  </si>
+  <si>
+    <t>Inferior à melhor obtida</t>
+  </si>
+  <si>
+    <t>Subproblema 15</t>
+  </si>
+  <si>
+    <t>Subproblema 16</t>
+  </si>
+  <si>
+    <t>Subproblema 17</t>
+  </si>
+  <si>
+    <t>Subproblema 18</t>
+  </si>
+  <si>
+    <t>x3 =1,11</t>
+  </si>
+  <si>
+    <t>Subproblema 19</t>
+  </si>
+  <si>
+    <t>Subproblema 20</t>
+  </si>
+  <si>
+    <t>Subproblema 21</t>
+  </si>
+  <si>
+    <t>Subproblema 22</t>
+  </si>
+  <si>
+    <t>x2 &lt;=  2</t>
+  </si>
+  <si>
+    <t>Subproblema 23</t>
+  </si>
+  <si>
+    <t>Inferior</t>
+  </si>
+  <si>
+    <t>Subproblema 24</t>
+  </si>
+  <si>
+    <t>Subproblema 25</t>
+  </si>
+  <si>
+    <t>Subproblema 26</t>
+  </si>
+  <si>
+    <t>Z = 27</t>
+  </si>
+  <si>
+    <t>x1 = 1,8</t>
+  </si>
+  <si>
+    <t>x3 = 3,8</t>
+  </si>
+  <si>
+    <t>Z = 16,63</t>
+  </si>
+  <si>
+    <t>x1 = 2,45</t>
+  </si>
+  <si>
+    <t>x2 = 0,82</t>
+  </si>
+  <si>
+    <t>x3 &gt;=2</t>
+  </si>
+  <si>
+    <t>Z = 17,4</t>
+  </si>
+  <si>
+    <t>x2 = 0,6</t>
+  </si>
+  <si>
+    <t>x2 = 0,5</t>
+  </si>
+  <si>
+    <t>Minimizar z = 2x1 + 3x2 + 5x3</t>
+  </si>
+  <si>
+    <t>x1 + 2x2 + 3x3 ≥ 7</t>
+  </si>
+  <si>
+    <t>3x1 + 2x2 + 3x3 ≥ 11</t>
+  </si>
+  <si>
+    <t>x1, x3 ≥ 0 e inteiras</t>
+  </si>
+  <si>
+    <t>x2 ≥ 0.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1178,6 +1057,14 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1210,6 +1097,14 @@
       <name val="Helvetica"/>
     </font>
     <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
@@ -1230,7 +1125,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1275,13 +1170,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDB6274"/>
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <fgColor rgb="FFDB6274"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1301,6 +1196,24 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFF2CEEF"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC18B76"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1368,20 +1281,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1394,7 +1303,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1404,7 +1313,7 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1425,22 +1334,22 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -1448,30 +1357,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1500,13 +1404,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1518,13 +1422,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1533,32 +1440,78 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1569,8 +1522,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFC18B76"/>
+      <color rgb="FFDB6274"/>
       <color rgb="FFFFFDAD"/>
-      <color rgb="FFDB6274"/>
       <color rgb="FFFFFD78"/>
       <color rgb="FFBF74FE"/>
       <color rgb="FFFF8AD8"/>
@@ -1904,10 +1858,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D49DE3B3-3215-434D-8728-B15D1DD18C73}">
-  <dimension ref="A1:Z69"/>
+  <dimension ref="A1:Z104"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView topLeftCell="L1" zoomScale="109" workbookViewId="0">
+      <selection activeCell="R80" sqref="R80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1917,31 +1871,33 @@
     <col min="3" max="3" width="3.1640625" customWidth="1"/>
     <col min="4" max="4" width="3.6640625" customWidth="1"/>
     <col min="10" max="10" width="13.83203125" customWidth="1"/>
-    <col min="11" max="11" width="3" customWidth="1"/>
-    <col min="12" max="12" width="13.6640625" customWidth="1"/>
-    <col min="13" max="13" width="7.5" customWidth="1"/>
+    <col min="11" max="11" width="6" customWidth="1"/>
+    <col min="12" max="12" width="18.83203125" customWidth="1"/>
+    <col min="13" max="13" width="2.83203125" customWidth="1"/>
     <col min="14" max="14" width="18.83203125" customWidth="1"/>
     <col min="15" max="15" width="2.83203125" customWidth="1"/>
     <col min="16" max="16" width="18.83203125" customWidth="1"/>
     <col min="17" max="17" width="2.83203125" customWidth="1"/>
     <col min="18" max="18" width="18.83203125" customWidth="1"/>
-    <col min="19" max="19" width="2.83203125" style="5" customWidth="1"/>
+    <col min="19" max="19" width="2.83203125" style="6" customWidth="1"/>
     <col min="20" max="20" width="18.83203125" customWidth="1"/>
-    <col min="21" max="21" width="2.83203125" style="5" customWidth="1"/>
+    <col min="21" max="21" width="2.83203125" style="6" customWidth="1"/>
     <col min="22" max="22" width="18.83203125" customWidth="1"/>
-    <col min="23" max="23" width="6" customWidth="1"/>
+    <col min="23" max="23" width="2.83203125" customWidth="1"/>
+    <col min="24" max="24" width="18.83203125" style="9" customWidth="1"/>
+    <col min="25" max="25" width="5.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="17" thickBot="1">
+    <row r="1" spans="1:24" ht="17" thickBot="1">
       <c r="G1" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1">
         <f>SUMPRODUCT(E2:H2,E4:H4)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22">
+        <v>15.833333333333332</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1961,7 +1917,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:24">
       <c r="E3" t="s">
         <v>7</v>
       </c>
@@ -1978,24 +1934,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:24">
       <c r="E4" s="2">
         <v>0</v>
       </c>
       <c r="F4" s="2">
-        <v>2</v>
+        <v>3.1666666666666665</v>
       </c>
       <c r="G4" s="2">
         <v>0</v>
       </c>
       <c r="H4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V4" s="14" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -2009,7 +1965,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:24">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -2027,7 +1983,7 @@
       </c>
       <c r="I6">
         <f>SUMPRODUCT(E6:H6,E4:H4)</f>
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="J6">
         <v>16</v>
@@ -2036,7 +1992,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="17" thickBot="1">
+    <row r="7" spans="1:24" ht="17" thickBot="1">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -2063,7 +2019,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="17" thickBot="1">
+    <row r="8" spans="1:24" ht="17" thickBot="1">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -2081,73 +2037,94 @@
       </c>
       <c r="I8">
         <f>SUMPRODUCT(E8:H8,E4:H4)</f>
-        <v>19</v>
+        <v>25.333333333333332</v>
       </c>
       <c r="J8">
         <v>44</v>
       </c>
-      <c r="V8" s="5"/>
-    </row>
-    <row r="9" spans="1:22" ht="17" thickBot="1">
+      <c r="V8" s="6"/>
+    </row>
+    <row r="9" spans="1:24" ht="17" thickBot="1">
       <c r="A9" t="s">
         <v>5</v>
       </c>
       <c r="T9" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="U9" s="33"/>
-    </row>
-    <row r="10" spans="1:22">
+      <c r="U9" s="34"/>
+      <c r="X9" s="79" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
       <c r="T10" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="U10" s="34"/>
-    </row>
-    <row r="11" spans="1:22">
+      <c r="U10" s="35"/>
+      <c r="X10" s="21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
       <c r="T11" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="U11" s="34"/>
-    </row>
-    <row r="12" spans="1:22">
+      <c r="U11" s="35"/>
+      <c r="X11" s="28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
       <c r="T12" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="U12" s="34"/>
-    </row>
-    <row r="13" spans="1:22">
+        <v>47</v>
+      </c>
+      <c r="U12" s="35"/>
+      <c r="X12" s="28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
       <c r="T13" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="U13" s="34"/>
-    </row>
-    <row r="14" spans="1:22">
+      <c r="U13" s="35"/>
+      <c r="X13" s="28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
       <c r="T14" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="U14" s="34"/>
-    </row>
-    <row r="15" spans="1:22" ht="17" thickBot="1">
+      <c r="U14" s="35"/>
+      <c r="X14" s="28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="17" thickBot="1">
       <c r="G15" t="s">
         <v>13</v>
       </c>
       <c r="T15" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="U15" s="34"/>
-    </row>
-    <row r="16" spans="1:22" ht="17" thickBot="1">
+        <v>49</v>
+      </c>
+      <c r="U15" s="35"/>
+      <c r="X15" s="29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
       <c r="G16" t="s">
         <v>14</v>
       </c>
-      <c r="P16" s="5"/>
-    </row>
-    <row r="17" spans="5:26">
+      <c r="P16" s="6"/>
+      <c r="X16" s="52" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="5:26" ht="17" thickBot="1">
       <c r="G17" t="s">
-        <v>45</v>
-      </c>
-      <c r="R17" s="24" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="S17" s="36"/>
     </row>
@@ -2155,29 +2132,38 @@
       <c r="G18" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="R18" s="22" t="s">
-        <v>26</v>
+      <c r="R18" s="25" t="s">
+        <v>24</v>
       </c>
       <c r="S18" s="32"/>
+      <c r="T18" s="17" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="19" spans="5:26">
       <c r="G19" t="s">
         <v>16</v>
       </c>
-      <c r="R19" s="14" t="s">
-        <v>18</v>
+      <c r="R19" s="22" t="s">
+        <v>26</v>
       </c>
       <c r="S19" s="32"/>
+      <c r="T19" s="19" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="20" spans="5:26">
       <c r="G20" t="s">
         <v>34</v>
       </c>
-      <c r="P20" s="5"/>
+      <c r="P20" s="6"/>
       <c r="R20" s="14" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="S20" s="32"/>
+      <c r="T20" s="18" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="21" spans="5:26">
       <c r="E21" t="s">
@@ -2187,13 +2173,16 @@
         <v>22</v>
       </c>
       <c r="R21" s="14" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="S21" s="32"/>
-      <c r="W21" s="5"/>
-      <c r="X21" s="5"/>
-      <c r="Y21" s="5"/>
-      <c r="Z21" s="5"/>
+      <c r="T21" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="W21" s="6"/>
+      <c r="X21" s="70"/>
+      <c r="Y21" s="6"/>
+      <c r="Z21" s="6"/>
     </row>
     <row r="22" spans="5:26">
       <c r="E22" s="67" t="s">
@@ -2203,13 +2192,16 @@
         <v>23</v>
       </c>
       <c r="R22" s="14" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="S22" s="32"/>
-      <c r="W22" s="5"/>
-      <c r="X22" s="5"/>
-      <c r="Y22" s="5"/>
-      <c r="Z22" s="5"/>
+      <c r="T22" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="W22" s="6"/>
+      <c r="X22" s="70"/>
+      <c r="Y22" s="6"/>
+      <c r="Z22" s="6"/>
     </row>
     <row r="23" spans="5:26">
       <c r="E23" t="s">
@@ -2219,60 +2211,66 @@
         <v>43</v>
       </c>
       <c r="R23" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="S23" s="32"/>
+      <c r="T23" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="W23" s="6"/>
+      <c r="X23" s="70"/>
+      <c r="Y23" s="6"/>
+      <c r="Z23" s="6"/>
+    </row>
+    <row r="24" spans="5:26">
+      <c r="E24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="R24" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="S23" s="32"/>
-      <c r="W23" s="5"/>
-      <c r="X23" s="5"/>
-      <c r="Y23" s="5"/>
-      <c r="Z23" s="5"/>
-    </row>
-    <row r="24" spans="5:26" ht="17" thickBot="1">
-      <c r="E24" t="s">
-        <v>45</v>
-      </c>
-      <c r="I24" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="R24" s="23" t="s">
-        <v>30</v>
-      </c>
       <c r="S24" s="32"/>
-      <c r="W24" s="5"/>
-      <c r="X24" s="5"/>
-      <c r="Y24" s="5"/>
-      <c r="Z24" s="5"/>
+      <c r="T24" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="W24" s="6"/>
+      <c r="X24" s="70"/>
+      <c r="Y24" s="6"/>
+      <c r="Z24" s="6"/>
     </row>
     <row r="25" spans="5:26" ht="17" thickBot="1">
       <c r="E25" t="s">
         <v>20</v>
       </c>
       <c r="I25" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="W25" s="5"/>
-      <c r="X25" s="5"/>
-      <c r="Y25" s="5"/>
-      <c r="Z25" s="5"/>
-    </row>
-    <row r="26" spans="5:26">
+        <v>52</v>
+      </c>
+      <c r="R25" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="T25" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="W25" s="6"/>
+      <c r="X25" s="70"/>
+      <c r="Y25" s="6"/>
+      <c r="Z25" s="6"/>
+    </row>
+    <row r="26" spans="5:26" ht="17" thickBot="1">
       <c r="E26" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I26" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="P26" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="R26" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="S26" s="33"/>
-      <c r="W26" s="5"/>
-      <c r="X26" s="5"/>
-      <c r="Y26" s="5"/>
-      <c r="Z26" s="5"/>
+      <c r="S26" s="34"/>
+      <c r="W26" s="6"/>
+      <c r="X26" s="70"/>
+      <c r="Y26" s="6"/>
+      <c r="Z26" s="6"/>
     </row>
     <row r="27" spans="5:26">
       <c r="E27" t="s">
@@ -2281,30 +2279,45 @@
       <c r="I27" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="P27" s="10" t="s">
+      <c r="P27" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="R27" s="64" t="s">
+        <v>36</v>
+      </c>
+      <c r="S27" s="35"/>
+      <c r="T27" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="V27" s="86" t="s">
+        <v>54</v>
+      </c>
+      <c r="W27" s="6"/>
+      <c r="X27" s="70"/>
+      <c r="Y27" s="6"/>
+      <c r="Z27" s="6"/>
+    </row>
+    <row r="28" spans="5:26">
+      <c r="I28" s="76" t="s">
+        <v>57</v>
+      </c>
+      <c r="P28" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="R27" s="10" t="s">
+      <c r="R28" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="S27" s="34"/>
-      <c r="W27" s="5"/>
-      <c r="X27" s="5"/>
-      <c r="Y27" s="5"/>
-      <c r="Z27" s="5"/>
-    </row>
-    <row r="28" spans="5:26">
-      <c r="P28" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="R28" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="S28" s="34"/>
-      <c r="W28" s="5"/>
-      <c r="X28" s="5"/>
-      <c r="Y28" s="5"/>
-      <c r="Z28" s="5"/>
+      <c r="S28" s="35"/>
+      <c r="T28" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="V28" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="W28" s="6"/>
+      <c r="X28" s="70"/>
+      <c r="Y28" s="6"/>
+      <c r="Z28" s="6"/>
     </row>
     <row r="29" spans="5:26">
       <c r="E29" t="s">
@@ -2314,16 +2327,22 @@
         <v>25</v>
       </c>
       <c r="P29" s="18" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="R29" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="S29" s="34"/>
-      <c r="W29" s="5"/>
-      <c r="X29" s="5"/>
-      <c r="Y29" s="5"/>
-      <c r="Z29" s="5"/>
+        <v>26</v>
+      </c>
+      <c r="S29" s="35"/>
+      <c r="T29" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="V29" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="W29" s="6"/>
+      <c r="X29" s="70"/>
+      <c r="Y29" s="6"/>
+      <c r="Z29" s="6"/>
     </row>
     <row r="30" spans="5:26">
       <c r="E30" s="4" t="s">
@@ -2333,16 +2352,22 @@
         <v>27</v>
       </c>
       <c r="P30" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="R30" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="S30" s="35"/>
+      <c r="T30" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="V30" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="R30" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="S30" s="34"/>
-      <c r="W30" s="5"/>
-      <c r="X30" s="5"/>
-      <c r="Y30" s="5"/>
-      <c r="Z30" s="5"/>
+      <c r="W30" s="6"/>
+      <c r="X30" s="70"/>
+      <c r="Y30" s="6"/>
+      <c r="Z30" s="6"/>
     </row>
     <row r="31" spans="5:26">
       <c r="E31" t="s">
@@ -2351,17 +2376,23 @@
       <c r="G31" t="s">
         <v>18</v>
       </c>
-      <c r="P31" s="25" t="s">
-        <v>15</v>
+      <c r="P31" s="18" t="s">
+        <v>47</v>
       </c>
       <c r="R31" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="S31" s="34"/>
-      <c r="W31" s="5"/>
-      <c r="X31" s="5"/>
-      <c r="Y31" s="5"/>
-      <c r="Z31" s="5"/>
+        <v>47</v>
+      </c>
+      <c r="S31" s="35"/>
+      <c r="T31" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="V31" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="W31" s="6"/>
+      <c r="X31" s="70"/>
+      <c r="Y31" s="6"/>
+      <c r="Z31" s="6"/>
     </row>
     <row r="32" spans="5:26">
       <c r="E32" t="s">
@@ -2370,61 +2401,76 @@
       <c r="G32" t="s">
         <v>31</v>
       </c>
-      <c r="P32" s="18" t="s">
+      <c r="P32" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="R32" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="S32" s="35"/>
+      <c r="T32" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="U32" s="31"/>
+      <c r="V32" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="W32" s="31"/>
+      <c r="X32" s="35"/>
+      <c r="Y32" s="31"/>
+      <c r="Z32" s="6"/>
+    </row>
+    <row r="33" spans="5:26">
+      <c r="E33" t="s">
+        <v>47</v>
+      </c>
+      <c r="G33" t="s">
+        <v>47</v>
+      </c>
+      <c r="P33" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="R32" s="11" t="s">
+      <c r="R33" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="S32" s="34"/>
-      <c r="T32" s="30"/>
-      <c r="U32" s="31"/>
-      <c r="V32" s="30"/>
-      <c r="W32" s="31"/>
-      <c r="X32" s="31"/>
-      <c r="Y32" s="31"/>
-      <c r="Z32" s="5"/>
-    </row>
-    <row r="33" spans="5:26" ht="17" thickBot="1">
-      <c r="E33" t="s">
-        <v>45</v>
-      </c>
-      <c r="G33" t="s">
-        <v>45</v>
-      </c>
-      <c r="P33" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="R33" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="S33" s="34"/>
-      <c r="T33" s="30"/>
+      <c r="S33" s="35"/>
+      <c r="T33" s="26" t="s">
+        <v>44</v>
+      </c>
       <c r="U33" s="31"/>
-      <c r="V33" s="30"/>
+      <c r="V33" s="28" t="s">
+        <v>33</v>
+      </c>
       <c r="W33" s="31"/>
-      <c r="X33" s="31"/>
+      <c r="X33" s="35"/>
       <c r="Y33" s="31"/>
-      <c r="Z33" s="5"/>
+      <c r="Z33" s="6"/>
     </row>
     <row r="34" spans="5:26" ht="17" thickBot="1">
       <c r="E34" t="s">
         <v>20</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="R34" s="39" t="s">
-        <v>56</v>
+      <c r="P34" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="R34" s="12" t="s">
+        <v>40</v>
       </c>
       <c r="S34" s="31"/>
-      <c r="T34" s="30"/>
+      <c r="T34" s="20" t="s">
+        <v>34</v>
+      </c>
       <c r="U34" s="31"/>
-      <c r="V34" s="30"/>
+      <c r="V34" s="29" t="s">
+        <v>34</v>
+      </c>
       <c r="W34" s="31"/>
-      <c r="X34" s="31"/>
+      <c r="X34" s="35"/>
       <c r="Y34" s="31"/>
-      <c r="Z34" s="5"/>
+      <c r="Z34" s="6"/>
     </row>
     <row r="35" spans="5:26">
       <c r="E35" t="s">
@@ -2433,34 +2479,26 @@
       <c r="G35" t="s">
         <v>33</v>
       </c>
-      <c r="N35" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="P35" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="R35" s="30"/>
+      <c r="R35" s="78" t="s">
+        <v>131</v>
+      </c>
       <c r="S35" s="31"/>
       <c r="T35" s="30"/>
       <c r="U35" s="31"/>
-      <c r="V35" s="30"/>
+      <c r="V35" s="52" t="s">
+        <v>57</v>
+      </c>
       <c r="W35" s="31"/>
-      <c r="X35" s="31"/>
+      <c r="X35" s="35"/>
       <c r="Y35" s="31"/>
-      <c r="Z35" s="5"/>
-    </row>
-    <row r="36" spans="5:26">
+      <c r="Z35" s="6"/>
+    </row>
+    <row r="36" spans="5:26" ht="17" thickBot="1">
       <c r="E36" s="3" t="s">
         <v>30</v>
       </c>
       <c r="G36" t="s">
         <v>34</v>
-      </c>
-      <c r="N36" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="P36" s="25" t="s">
-        <v>23</v>
       </c>
       <c r="R36" s="30"/>
       <c r="S36" s="31"/>
@@ -2468,26 +2506,30 @@
       <c r="U36" s="31"/>
       <c r="V36" s="30"/>
       <c r="W36" s="31"/>
-      <c r="X36" s="31"/>
+      <c r="X36" s="35"/>
       <c r="Y36" s="31"/>
-      <c r="Z36" s="5"/>
+      <c r="Z36" s="6"/>
     </row>
     <row r="37" spans="5:26">
-      <c r="N37" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="P37" s="28" t="s">
-        <v>37</v>
+      <c r="N37" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="P37" s="79" t="s">
+        <v>56</v>
       </c>
       <c r="R37" s="30"/>
       <c r="S37" s="31"/>
-      <c r="T37" s="30"/>
+      <c r="T37" s="64" t="s">
+        <v>132</v>
+      </c>
       <c r="U37" s="31"/>
-      <c r="V37" s="30"/>
+      <c r="V37" s="86" t="s">
+        <v>133</v>
+      </c>
       <c r="W37" s="31"/>
-      <c r="X37" s="32"/>
+      <c r="X37" s="35"/>
       <c r="Y37" s="31"/>
-      <c r="Z37" s="5"/>
+      <c r="Z37" s="6"/>
     </row>
     <row r="38" spans="5:26">
       <c r="E38" t="s">
@@ -2496,22 +2538,32 @@
       <c r="F38" t="s">
         <v>36</v>
       </c>
-      <c r="M38" s="5"/>
-      <c r="N38" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="P38" s="28" t="s">
-        <v>43</v>
+      <c r="H38" t="s">
+        <v>53</v>
+      </c>
+      <c r="I38" t="s">
+        <v>54</v>
+      </c>
+      <c r="M38" s="6"/>
+      <c r="N38" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="P38" s="26" t="s">
+        <v>23</v>
       </c>
       <c r="R38" s="30"/>
       <c r="S38" s="31"/>
-      <c r="T38" s="30"/>
+      <c r="T38" s="26" t="s">
+        <v>46</v>
+      </c>
       <c r="U38" s="31"/>
-      <c r="V38" s="30"/>
+      <c r="V38" s="26" t="s">
+        <v>138</v>
+      </c>
       <c r="W38" s="31"/>
-      <c r="X38" s="32"/>
+      <c r="X38" s="35"/>
       <c r="Y38" s="31"/>
-      <c r="Z38" s="5"/>
+      <c r="Z38" s="6"/>
     </row>
     <row r="39" spans="5:26">
       <c r="E39" s="3" t="s">
@@ -2520,480 +2572,1147 @@
       <c r="F39" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="M39" s="5"/>
-      <c r="N39" s="18" t="s">
-        <v>45</v>
+      <c r="H39" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M39" s="6"/>
+      <c r="N39" s="80" t="s">
+        <v>37</v>
       </c>
       <c r="P39" s="28" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="R39" s="30"/>
       <c r="S39" s="31"/>
-      <c r="T39" s="30"/>
+      <c r="T39" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="U39" s="31"/>
-      <c r="V39" s="30"/>
+      <c r="V39" s="28" t="s">
+        <v>41</v>
+      </c>
       <c r="W39" s="31"/>
-      <c r="X39" s="32"/>
+      <c r="X39" s="35"/>
       <c r="Y39" s="31"/>
-      <c r="Z39" s="5"/>
+      <c r="Z39" s="6"/>
     </row>
     <row r="40" spans="5:26">
       <c r="E40" t="s">
         <v>26</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="M40" s="5"/>
-      <c r="N40" s="18" t="s">
-        <v>20</v>
+      <c r="H40" t="s">
+        <v>27</v>
+      </c>
+      <c r="I40" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="M40" s="6"/>
+      <c r="N40" s="80" t="s">
+        <v>19</v>
       </c>
       <c r="P40" s="28" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="R40" s="30"/>
       <c r="S40" s="31"/>
-      <c r="T40" s="30"/>
+      <c r="T40" s="11" t="s">
+        <v>43</v>
+      </c>
       <c r="U40" s="31"/>
-      <c r="V40" s="30"/>
+      <c r="V40" s="28" t="s">
+        <v>116</v>
+      </c>
       <c r="W40" s="31"/>
-      <c r="X40" s="32"/>
+      <c r="X40" s="35"/>
       <c r="Y40" s="31"/>
-      <c r="Z40" s="5"/>
+      <c r="Z40" s="6"/>
     </row>
     <row r="41" spans="5:26">
-      <c r="E41" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F41" t="s">
-        <v>49</v>
-      </c>
-      <c r="M41" s="5"/>
-      <c r="N41" s="26" t="s">
-        <v>21</v>
+      <c r="E41" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H41" t="s">
+        <v>43</v>
+      </c>
+      <c r="I41" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="M41" s="6"/>
+      <c r="N41" s="80" t="s">
+        <v>47</v>
       </c>
       <c r="P41" s="28" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="R41" s="30"/>
       <c r="S41" s="31"/>
-      <c r="T41" s="30"/>
+      <c r="T41" s="11" t="s">
+        <v>48</v>
+      </c>
       <c r="U41" s="31"/>
-      <c r="V41" s="30"/>
+      <c r="V41" s="28" t="s">
+        <v>47</v>
+      </c>
       <c r="W41" s="31"/>
-      <c r="X41" s="32"/>
+      <c r="X41" s="35"/>
       <c r="Y41" s="31"/>
-      <c r="Z41" s="5"/>
-    </row>
-    <row r="42" spans="5:26" ht="17" thickBot="1">
-      <c r="F42" t="s">
-        <v>45</v>
-      </c>
-      <c r="M42" s="5"/>
-      <c r="N42" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="P42" s="29" t="s">
-        <v>34</v>
+      <c r="Z41" s="6"/>
+    </row>
+    <row r="42" spans="5:26">
+      <c r="E42" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="M42" s="6"/>
+      <c r="N42" s="80" t="s">
+        <v>20</v>
+      </c>
+      <c r="P42" s="28" t="s">
+        <v>52</v>
       </c>
       <c r="R42" s="30"/>
       <c r="S42" s="31"/>
-      <c r="T42" s="30"/>
+      <c r="T42" s="11" t="s">
+        <v>39</v>
+      </c>
       <c r="U42" s="31"/>
-      <c r="V42" s="30"/>
+      <c r="V42" s="28" t="s">
+        <v>77</v>
+      </c>
       <c r="W42" s="31"/>
-      <c r="X42" s="32"/>
+      <c r="X42" s="35"/>
       <c r="Y42" s="31"/>
-      <c r="Z42" s="5"/>
+      <c r="Z42" s="6"/>
     </row>
     <row r="43" spans="5:26">
-      <c r="F43" t="s">
+      <c r="E43" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="L43" s="5"/>
-      <c r="M43" s="5"/>
-      <c r="N43" s="5"/>
-      <c r="P43" s="38" t="s">
-        <v>55</v>
+      <c r="H43" t="s">
+        <v>39</v>
+      </c>
+      <c r="I43" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="P43" s="28" t="s">
+        <v>29</v>
       </c>
       <c r="R43" s="30"/>
       <c r="S43" s="31"/>
-      <c r="T43" s="30"/>
+      <c r="T43" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="U43" s="31"/>
-      <c r="V43" s="30"/>
+      <c r="V43" s="28" t="s">
+        <v>119</v>
+      </c>
       <c r="W43" s="31"/>
-      <c r="X43" s="32"/>
+      <c r="X43" s="35"/>
       <c r="Y43" s="31"/>
-      <c r="Z43" s="5"/>
-    </row>
-    <row r="44" spans="5:26">
-      <c r="F44" t="s">
+      <c r="Z43" s="6"/>
+    </row>
+    <row r="44" spans="5:26" ht="17" thickBot="1">
+      <c r="E44" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="L44" s="5"/>
-      <c r="M44" s="5"/>
-      <c r="N44" s="5"/>
+      <c r="F44" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I44" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="L44" s="6"/>
+      <c r="M44" s="6"/>
+      <c r="N44" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="P44" s="29" t="s">
+        <v>34</v>
+      </c>
       <c r="R44" s="30"/>
       <c r="S44" s="31"/>
-      <c r="T44" s="30"/>
+      <c r="T44" s="12" t="s">
+        <v>34</v>
+      </c>
       <c r="U44" s="31"/>
-      <c r="V44" s="30"/>
+      <c r="V44" s="29" t="s">
+        <v>34</v>
+      </c>
       <c r="W44" s="31"/>
-      <c r="X44" s="32"/>
+      <c r="X44" s="35"/>
       <c r="Y44" s="31"/>
-      <c r="Z44" s="5"/>
+      <c r="Z44" s="6"/>
     </row>
     <row r="45" spans="5:26">
-      <c r="F45" t="s">
+      <c r="E45" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F45" s="7" t="s">
         <v>40</v>
+      </c>
+      <c r="H45" t="s">
+        <v>34</v>
+      </c>
+      <c r="I45" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="P45" s="52" t="s">
+        <v>57</v>
       </c>
       <c r="R45" s="30"/>
       <c r="S45" s="31"/>
-      <c r="T45" s="30"/>
+      <c r="T45" s="82" t="s">
+        <v>131</v>
+      </c>
       <c r="U45" s="31"/>
-      <c r="V45" s="30"/>
+      <c r="V45" s="52" t="s">
+        <v>57</v>
+      </c>
       <c r="W45" s="31"/>
-      <c r="X45" s="31"/>
+      <c r="X45" s="35"/>
       <c r="Y45" s="31"/>
-      <c r="Z45" s="5"/>
-    </row>
-    <row r="46" spans="5:26">
+      <c r="Z45" s="6"/>
+    </row>
+    <row r="46" spans="5:26" ht="17" thickBot="1">
+      <c r="F46" s="77" t="s">
+        <v>139</v>
+      </c>
+      <c r="I46" s="76" t="s">
+        <v>57</v>
+      </c>
       <c r="R46" s="30"/>
       <c r="S46" s="31"/>
-      <c r="T46" s="30"/>
+      <c r="T46" s="83" t="s">
+        <v>58</v>
+      </c>
       <c r="U46" s="31"/>
-      <c r="V46" s="30"/>
       <c r="W46" s="31"/>
-      <c r="X46" s="31"/>
+      <c r="X46" s="35"/>
       <c r="Y46" s="31"/>
-      <c r="Z46" s="5"/>
+      <c r="Z46" s="6"/>
     </row>
     <row r="47" spans="5:26">
+      <c r="N47" s="72" t="s">
+        <v>134</v>
+      </c>
+      <c r="P47" s="72" t="s">
+        <v>135</v>
+      </c>
       <c r="R47" s="30"/>
       <c r="S47" s="31"/>
       <c r="T47" s="30"/>
       <c r="U47" s="31"/>
       <c r="V47" s="30"/>
       <c r="W47" s="31"/>
-      <c r="X47" s="31"/>
+      <c r="X47" s="35"/>
       <c r="Y47" s="31"/>
-      <c r="Z47" s="5"/>
-    </row>
-    <row r="48" spans="5:26">
-      <c r="R48" s="30"/>
+      <c r="Z47" s="6"/>
+    </row>
+    <row r="48" spans="5:26" s="6" customFormat="1">
+      <c r="N48" s="81" t="s">
+        <v>26</v>
+      </c>
+      <c r="P48" s="81" t="s">
+        <v>27</v>
+      </c>
+      <c r="R48" s="31"/>
       <c r="S48" s="31"/>
-      <c r="T48" s="30"/>
+      <c r="T48" s="31"/>
       <c r="U48" s="31"/>
-      <c r="V48" s="30"/>
+      <c r="V48" s="31"/>
       <c r="W48" s="31"/>
-      <c r="X48" s="31"/>
+      <c r="X48" s="35"/>
       <c r="Y48" s="31"/>
-      <c r="Z48" s="5"/>
     </row>
     <row r="49" spans="5:26">
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5"/>
-      <c r="I49" s="5"/>
-      <c r="J49" s="5"/>
+      <c r="E49" t="s">
+        <v>55</v>
+      </c>
+      <c r="F49" s="74" t="s">
+        <v>56</v>
+      </c>
+      <c r="H49" t="s">
+        <v>136</v>
+      </c>
+      <c r="I49" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="N49" s="80" t="s">
+        <v>18</v>
+      </c>
+      <c r="P49" s="80" t="s">
+        <v>18</v>
+      </c>
       <c r="R49" s="30"/>
       <c r="S49" s="31"/>
       <c r="T49" s="30"/>
       <c r="U49" s="31"/>
       <c r="V49" s="30"/>
       <c r="W49" s="31"/>
-      <c r="X49" s="31"/>
+      <c r="X49" s="35"/>
       <c r="Y49" s="31"/>
-      <c r="Z49" s="5"/>
+      <c r="Z49" s="6"/>
     </row>
     <row r="50" spans="5:26">
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
-      <c r="J50" s="5"/>
+      <c r="E50" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G50" s="6"/>
+      <c r="H50" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I50" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="J50" s="6"/>
+      <c r="N50" s="80" t="s">
+        <v>28</v>
+      </c>
+      <c r="P50" s="80" t="s">
+        <v>31</v>
+      </c>
       <c r="R50" s="30"/>
       <c r="S50" s="31"/>
       <c r="T50" s="30"/>
       <c r="U50" s="31"/>
       <c r="V50" s="30"/>
       <c r="W50" s="31"/>
-      <c r="X50" s="31"/>
+      <c r="X50" s="35"/>
       <c r="Y50" s="31"/>
-      <c r="Z50" s="5"/>
+      <c r="Z50" s="6"/>
     </row>
     <row r="51" spans="5:26">
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="5"/>
+      <c r="E51" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F51" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G51" s="6"/>
+      <c r="H51" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I51" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="J51" s="6"/>
+      <c r="N51" s="80" t="s">
+        <v>47</v>
+      </c>
+      <c r="P51" s="80" t="s">
+        <v>47</v>
+      </c>
       <c r="R51" s="30"/>
       <c r="S51" s="31"/>
       <c r="T51" s="30"/>
       <c r="U51" s="31"/>
       <c r="V51" s="30"/>
       <c r="W51" s="31"/>
-      <c r="X51" s="31"/>
+      <c r="X51" s="35"/>
       <c r="Y51" s="31"/>
-      <c r="Z51" s="5"/>
+      <c r="Z51" s="6"/>
     </row>
     <row r="52" spans="5:26">
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
-      <c r="J52" s="5"/>
-      <c r="L52" s="5"/>
-      <c r="M52" s="5"/>
-      <c r="N52" s="5"/>
-      <c r="O52" s="5"/>
-      <c r="P52" s="5"/>
-      <c r="Q52" s="5"/>
+      <c r="E52" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F52" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G52" s="6"/>
+      <c r="H52" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I52" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="J52" s="6"/>
+      <c r="N52" s="80" t="s">
+        <v>20</v>
+      </c>
+      <c r="P52" s="84" t="s">
+        <v>32</v>
+      </c>
       <c r="R52" s="30"/>
       <c r="S52" s="31"/>
       <c r="T52" s="30"/>
       <c r="U52" s="31"/>
       <c r="V52" s="30"/>
-      <c r="W52" s="30"/>
-      <c r="X52" s="30"/>
-      <c r="Y52" s="30"/>
+      <c r="W52" s="31"/>
+      <c r="X52" s="35"/>
+      <c r="Y52" s="31"/>
+      <c r="Z52" s="6"/>
     </row>
     <row r="53" spans="5:26">
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
-      <c r="J53" s="5"/>
-      <c r="L53" s="5"/>
-      <c r="M53" s="5"/>
-      <c r="N53" s="5"/>
-      <c r="O53" s="5"/>
-      <c r="P53" s="5"/>
-      <c r="Q53" s="5"/>
-    </row>
-    <row r="54" spans="5:26">
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
-      <c r="I54" s="5"/>
-      <c r="J54" s="5"/>
-      <c r="L54" s="5"/>
-      <c r="M54" s="5"/>
-      <c r="N54" s="5"/>
-      <c r="O54" s="5"/>
-      <c r="P54" s="5"/>
-      <c r="Q54" s="5"/>
+      <c r="E53" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F53" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="G53" s="6"/>
+      <c r="H53" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I53" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="J53" s="6"/>
+      <c r="L53" s="6"/>
+      <c r="M53" s="6"/>
+      <c r="N53" s="80" t="s">
+        <v>29</v>
+      </c>
+      <c r="O53" s="6"/>
+      <c r="P53" s="80" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q53" s="6"/>
+      <c r="R53" s="30"/>
+      <c r="S53" s="31"/>
+      <c r="T53" s="30"/>
+      <c r="U53" s="31"/>
+      <c r="V53" s="30"/>
+      <c r="W53" s="30"/>
+      <c r="X53" s="33"/>
+      <c r="Y53" s="30"/>
+    </row>
+    <row r="54" spans="5:26" ht="17" thickBot="1">
+      <c r="E54" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F54" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="G54" s="6"/>
+      <c r="H54" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I54" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="J54" s="6"/>
+      <c r="L54" s="6"/>
+      <c r="M54" s="6"/>
+      <c r="N54" s="68" t="s">
+        <v>30</v>
+      </c>
+      <c r="O54" s="6"/>
+      <c r="P54" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q54" s="6"/>
     </row>
     <row r="55" spans="5:26">
-      <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="5"/>
-      <c r="I55" s="5"/>
-      <c r="J55" s="5"/>
-      <c r="L55" s="5"/>
-      <c r="M55" s="5"/>
-      <c r="N55" s="5"/>
-      <c r="O55" s="5"/>
-      <c r="P55" s="5"/>
-      <c r="Q55" s="5"/>
+      <c r="E55" s="75" t="s">
+        <v>21</v>
+      </c>
+      <c r="F55" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G55" s="6"/>
+      <c r="H55" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I55" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="J55" s="6"/>
+      <c r="L55" s="6"/>
+      <c r="M55" s="6"/>
+      <c r="N55" s="85" t="s">
+        <v>151</v>
+      </c>
+      <c r="O55" s="6"/>
+      <c r="P55" s="6"/>
+      <c r="Q55" s="6"/>
     </row>
     <row r="56" spans="5:26">
-      <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="5"/>
-      <c r="I56" s="5"/>
-      <c r="J56" s="5"/>
-      <c r="L56" s="5"/>
-      <c r="M56" s="5"/>
-      <c r="N56" s="5"/>
-      <c r="O56" s="5"/>
-      <c r="P56" s="5"/>
-      <c r="Q56" s="5"/>
+      <c r="E56" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F56" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G56" s="6"/>
+      <c r="H56" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I56" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="J56" s="6"/>
+      <c r="O56" s="6"/>
     </row>
     <row r="57" spans="5:26">
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
-      <c r="H57" s="5"/>
-      <c r="I57" s="5"/>
-      <c r="J57" s="5"/>
-      <c r="L57" s="5"/>
-      <c r="M57" s="5"/>
-      <c r="N57" s="5"/>
-      <c r="O57" s="5"/>
-      <c r="P57" s="5"/>
-      <c r="Q57" s="5"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="76" t="s">
+        <v>57</v>
+      </c>
+      <c r="G57" s="6"/>
+      <c r="H57" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="I57" s="13"/>
+      <c r="J57" s="6"/>
+      <c r="O57" s="6"/>
     </row>
     <row r="58" spans="5:26">
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="5"/>
-      <c r="I58" s="5"/>
-      <c r="J58" s="5"/>
-      <c r="L58" s="5"/>
-      <c r="M58" s="5"/>
-      <c r="N58" s="5"/>
-      <c r="O58" s="5"/>
-      <c r="P58" s="5"/>
-      <c r="Q58" s="5"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="76" t="s">
+        <v>57</v>
+      </c>
+      <c r="J58" s="6"/>
+      <c r="O58" s="6"/>
     </row>
     <row r="59" spans="5:26">
-      <c r="E59" s="5"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="5"/>
-      <c r="H59" s="5"/>
-      <c r="I59" s="5"/>
-      <c r="J59" s="5"/>
-      <c r="L59" s="5"/>
-      <c r="M59" s="5"/>
-      <c r="N59" s="5"/>
-      <c r="O59" s="5"/>
-      <c r="P59" s="5"/>
-      <c r="Q59" s="5"/>
+      <c r="E59" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="H59" s="6"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="6"/>
+      <c r="O59" s="6"/>
     </row>
     <row r="60" spans="5:26">
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="5"/>
-      <c r="H60" s="5"/>
-      <c r="I60" s="5"/>
-      <c r="J60" s="5"/>
-      <c r="L60" s="5"/>
-      <c r="M60" s="5"/>
-      <c r="N60" s="5"/>
-      <c r="O60" s="5"/>
-      <c r="P60" s="5"/>
-      <c r="Q60" s="5"/>
+      <c r="E60" s="75" t="s">
+        <v>26</v>
+      </c>
+      <c r="F60" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="6"/>
+      <c r="O60" s="6"/>
     </row>
     <row r="61" spans="5:26">
-      <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="5"/>
-      <c r="H61" s="5"/>
-      <c r="I61" s="5"/>
-      <c r="J61" s="5"/>
-      <c r="L61" s="5"/>
-      <c r="M61" s="5"/>
-      <c r="N61" s="5"/>
-      <c r="O61" s="5"/>
-      <c r="P61" s="5"/>
-      <c r="Q61" s="5"/>
+      <c r="E61" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H61" s="6"/>
+      <c r="I61" s="6"/>
+      <c r="J61" s="6"/>
+      <c r="O61" s="6"/>
     </row>
     <row r="62" spans="5:26">
-      <c r="E62" s="5"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="5"/>
-      <c r="H62" s="5"/>
-      <c r="I62" s="5"/>
-      <c r="J62" s="5"/>
-      <c r="L62" s="5"/>
-      <c r="M62" s="5"/>
-      <c r="N62" s="5"/>
-      <c r="O62" s="5"/>
-      <c r="P62" s="5"/>
-      <c r="Q62" s="5"/>
+      <c r="E62" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H62" s="6"/>
+      <c r="I62" s="6"/>
+      <c r="J62" s="6"/>
+      <c r="O62" s="6"/>
     </row>
     <row r="63" spans="5:26">
-      <c r="E63" s="5"/>
-      <c r="F63" s="5"/>
-      <c r="G63" s="5"/>
-      <c r="H63" s="5"/>
-      <c r="I63" s="5"/>
-      <c r="J63" s="5"/>
-      <c r="L63" s="5"/>
-      <c r="M63" s="5"/>
-      <c r="N63" s="5"/>
-      <c r="O63" s="5"/>
-      <c r="P63" s="5"/>
-      <c r="Q63" s="5"/>
+      <c r="E63" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H63" s="6"/>
+      <c r="I63" s="6"/>
+      <c r="J63" s="6"/>
+      <c r="O63" s="6"/>
     </row>
     <row r="64" spans="5:26">
-      <c r="E64" s="5"/>
-      <c r="F64" s="5"/>
-      <c r="G64" s="5"/>
-      <c r="H64" s="5"/>
-      <c r="I64" s="5"/>
-      <c r="J64" s="5"/>
-      <c r="L64" s="5"/>
-      <c r="M64" s="5"/>
-      <c r="N64" s="5"/>
-      <c r="O64" s="5"/>
-      <c r="P64" s="5"/>
-      <c r="Q64" s="5"/>
+      <c r="E64" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F64" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H64" s="6"/>
+      <c r="I64" s="6"/>
+      <c r="J64" s="6"/>
+      <c r="O64" s="6"/>
     </row>
     <row r="65" spans="5:17">
-      <c r="E65" s="5"/>
-      <c r="F65" s="5"/>
-      <c r="G65" s="5"/>
-      <c r="H65" s="5"/>
-      <c r="I65" s="5"/>
-      <c r="J65" s="5"/>
-      <c r="L65" s="5"/>
-      <c r="M65" s="5"/>
-      <c r="N65" s="5"/>
-      <c r="O65" s="5"/>
-      <c r="P65" s="5"/>
-      <c r="Q65" s="5"/>
+      <c r="E65" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H65" s="6"/>
+      <c r="I65" s="6"/>
+      <c r="J65" s="6"/>
+      <c r="L65" s="6"/>
+      <c r="M65" s="6"/>
+      <c r="N65" s="6"/>
+      <c r="O65" s="6"/>
+      <c r="P65" s="31"/>
+      <c r="Q65" s="6"/>
     </row>
     <row r="66" spans="5:17">
-      <c r="E66" s="5"/>
-      <c r="F66" s="5"/>
-      <c r="G66" s="5"/>
-      <c r="H66" s="5"/>
-      <c r="I66" s="5"/>
-      <c r="J66" s="5"/>
-      <c r="L66" s="5"/>
-      <c r="M66" s="5"/>
-      <c r="N66" s="5"/>
-      <c r="O66" s="5"/>
-      <c r="P66" s="5"/>
-      <c r="Q66" s="5"/>
+      <c r="E66" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H66" s="6"/>
+      <c r="I66" s="6"/>
+      <c r="J66" s="6"/>
+      <c r="L66" s="6"/>
+      <c r="M66" s="6"/>
+      <c r="N66" s="6"/>
+      <c r="O66" s="6"/>
+      <c r="P66" s="31"/>
+      <c r="Q66" s="6"/>
     </row>
     <row r="67" spans="5:17">
-      <c r="E67" s="5"/>
-      <c r="F67" s="5"/>
-      <c r="G67" s="5"/>
-      <c r="H67" s="5"/>
-      <c r="I67" s="5"/>
-      <c r="J67" s="5"/>
-      <c r="L67" s="5"/>
-      <c r="M67" s="5"/>
-      <c r="N67" s="5"/>
-      <c r="O67" s="5"/>
-      <c r="P67" s="5"/>
-      <c r="Q67" s="5"/>
+      <c r="J67" s="6"/>
+      <c r="L67" s="6"/>
+      <c r="M67" s="6"/>
+      <c r="N67" s="6"/>
+      <c r="O67" s="6"/>
+      <c r="P67" s="6"/>
+      <c r="Q67" s="6"/>
     </row>
     <row r="68" spans="5:17">
-      <c r="E68" s="5"/>
-      <c r="F68" s="5"/>
-      <c r="G68" s="5"/>
-      <c r="H68" s="5"/>
-      <c r="I68" s="5"/>
-      <c r="J68" s="5"/>
-      <c r="L68" s="5"/>
-      <c r="M68" s="5"/>
-      <c r="N68" s="5"/>
-      <c r="O68" s="5"/>
-      <c r="P68" s="5"/>
-      <c r="Q68" s="5"/>
+      <c r="E68" t="s">
+        <v>140</v>
+      </c>
+      <c r="F68" t="s">
+        <v>141</v>
+      </c>
+      <c r="H68" t="s">
+        <v>142</v>
+      </c>
+      <c r="I68" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="J68" s="6"/>
+      <c r="L68" s="6"/>
+      <c r="M68" s="6"/>
+      <c r="N68" s="6"/>
+      <c r="O68" s="6"/>
+      <c r="P68" s="6"/>
+      <c r="Q68" s="6"/>
     </row>
     <row r="69" spans="5:17">
-      <c r="L69" s="5"/>
-      <c r="M69" s="5"/>
-      <c r="N69" s="5"/>
-      <c r="O69" s="5"/>
-      <c r="P69" s="5"/>
-      <c r="Q69" s="5"/>
+      <c r="E69" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F69" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H69" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I69" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J69" s="6"/>
+      <c r="L69" s="6"/>
+      <c r="M69" s="6"/>
+      <c r="N69" s="6"/>
+      <c r="O69" s="6"/>
+      <c r="P69" s="6"/>
+      <c r="Q69" s="6"/>
+    </row>
+    <row r="70" spans="5:17">
+      <c r="E70" t="s">
+        <v>26</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H70" t="s">
+        <v>27</v>
+      </c>
+      <c r="I70" t="s">
+        <v>27</v>
+      </c>
+      <c r="J70" s="6"/>
+      <c r="L70" s="6"/>
+      <c r="M70" s="6"/>
+      <c r="N70" s="6"/>
+      <c r="O70" s="6"/>
+      <c r="P70" s="6"/>
+      <c r="Q70" s="6"/>
+    </row>
+    <row r="71" spans="5:17">
+      <c r="E71" t="s">
+        <v>50</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H71" t="s">
+        <v>43</v>
+      </c>
+      <c r="I71" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="J71" s="6"/>
+    </row>
+    <row r="72" spans="5:17">
+      <c r="E72" t="s">
+        <v>47</v>
+      </c>
+      <c r="F72" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="J72" s="6"/>
+    </row>
+    <row r="73" spans="5:17">
+      <c r="E73" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H73" t="s">
+        <v>39</v>
+      </c>
+      <c r="I73" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J73" s="6"/>
+    </row>
+    <row r="74" spans="5:17">
+      <c r="E74" t="s">
+        <v>29</v>
+      </c>
+      <c r="F74" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H74" s="67" t="s">
+        <v>144</v>
+      </c>
+      <c r="I74" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="J74" s="6"/>
+    </row>
+    <row r="75" spans="5:17">
+      <c r="E75" t="s">
+        <v>34</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H75" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I75" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="J75" s="6"/>
+    </row>
+    <row r="76" spans="5:17">
+      <c r="F76" s="77" t="s">
+        <v>139</v>
+      </c>
+      <c r="H76" s="6"/>
+      <c r="I76" s="76" t="s">
+        <v>57</v>
+      </c>
+      <c r="J76" s="6"/>
+    </row>
+    <row r="77" spans="5:17">
+      <c r="H77" s="6"/>
+      <c r="I77" s="6"/>
+      <c r="J77" s="6"/>
+    </row>
+    <row r="78" spans="5:17">
+      <c r="E78" t="s">
+        <v>145</v>
+      </c>
+      <c r="F78" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="H78" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="I78" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="J78" s="6"/>
+    </row>
+    <row r="79" spans="5:17">
+      <c r="E79" s="67" t="s">
+        <v>18</v>
+      </c>
+      <c r="F79" s="67" t="s">
+        <v>23</v>
+      </c>
+      <c r="H79" s="67" t="s">
+        <v>46</v>
+      </c>
+      <c r="I79" s="67" t="s">
+        <v>138</v>
+      </c>
+      <c r="J79" s="6"/>
+    </row>
+    <row r="80" spans="5:17">
+      <c r="E80" t="s">
+        <v>37</v>
+      </c>
+      <c r="F80" t="s">
+        <v>37</v>
+      </c>
+      <c r="H80" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="I80" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="J80" s="6"/>
+    </row>
+    <row r="81" spans="5:18">
+      <c r="E81" t="s">
+        <v>19</v>
+      </c>
+      <c r="F81" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H81" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I81" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="J81" s="6"/>
+    </row>
+    <row r="82" spans="5:18">
+      <c r="E82" t="s">
+        <v>47</v>
+      </c>
+      <c r="F82" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="H82" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I82" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="J82" s="6"/>
+    </row>
+    <row r="83" spans="5:18">
+      <c r="E83" t="s">
+        <v>20</v>
+      </c>
+      <c r="F83" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="H83" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I83" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="J83" s="6"/>
+    </row>
+    <row r="84" spans="5:18">
+      <c r="E84" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F84" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H84" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I84" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="J84" s="6"/>
+    </row>
+    <row r="85" spans="5:18">
+      <c r="E85" t="s">
+        <v>34</v>
+      </c>
+      <c r="F85" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H85" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I85" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="J85" s="6"/>
+    </row>
+    <row r="86" spans="5:18">
+      <c r="F86" s="76" t="s">
+        <v>57</v>
+      </c>
+      <c r="H86" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="I86" s="76" t="s">
+        <v>57</v>
+      </c>
+      <c r="J86" s="6"/>
+    </row>
+    <row r="88" spans="5:18">
+      <c r="E88" t="s">
+        <v>150</v>
+      </c>
+      <c r="F88" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="89" spans="5:18">
+      <c r="E89" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="90" spans="5:18">
+      <c r="E90" t="s">
+        <v>18</v>
+      </c>
+      <c r="F90" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="91" spans="5:18">
+      <c r="E91" t="s">
+        <v>28</v>
+      </c>
+      <c r="F91" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="92" spans="5:18">
+      <c r="E92" t="s">
+        <v>47</v>
+      </c>
+      <c r="F92" t="s">
+        <v>47</v>
+      </c>
+      <c r="L92" s="31"/>
+      <c r="M92" s="31"/>
+      <c r="N92" s="31"/>
+    </row>
+    <row r="93" spans="5:18" ht="17" thickBot="1">
+      <c r="E93" t="s">
+        <v>20</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L93" s="31"/>
+      <c r="M93" s="31"/>
+      <c r="N93" s="31"/>
+    </row>
+    <row r="94" spans="5:18">
+      <c r="E94" t="s">
+        <v>29</v>
+      </c>
+      <c r="F94" t="s">
+        <v>33</v>
+      </c>
+      <c r="L94" s="31"/>
+      <c r="M94" s="31"/>
+      <c r="N94" s="31"/>
+      <c r="P94" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q94" s="6"/>
+      <c r="R94" s="27" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="95" spans="5:18">
+      <c r="E95" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F95" t="s">
+        <v>34</v>
+      </c>
+      <c r="L95" s="34"/>
+      <c r="M95" s="31"/>
+      <c r="N95" s="34"/>
+      <c r="P95" s="84" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q95" s="6"/>
+      <c r="R95" s="84" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="96" spans="5:18">
+      <c r="L96" s="35"/>
+      <c r="M96" s="31"/>
+      <c r="N96" s="35"/>
+      <c r="P96" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q96" s="6"/>
+      <c r="R96" s="28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="97" spans="5:18">
+      <c r="E97" t="s">
+        <v>153</v>
+      </c>
+      <c r="F97" t="s">
+        <v>154</v>
+      </c>
+      <c r="L97" s="35"/>
+      <c r="M97" s="31"/>
+      <c r="N97" s="35"/>
+      <c r="P97" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q97" s="6"/>
+      <c r="R97" s="28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="98" spans="5:18">
+      <c r="E98" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L98" s="35"/>
+      <c r="M98" s="31"/>
+      <c r="N98" s="35"/>
+      <c r="P98" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q98" s="6"/>
+      <c r="R98" s="28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="99" spans="5:18">
+      <c r="E99" t="s">
+        <v>26</v>
+      </c>
+      <c r="F99" t="s">
+        <v>26</v>
+      </c>
+      <c r="L99" s="35"/>
+      <c r="M99" s="31"/>
+      <c r="N99" s="35"/>
+      <c r="P99" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q99" s="6"/>
+      <c r="R99" s="28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="100" spans="5:18">
+      <c r="E100" t="s">
+        <v>50</v>
+      </c>
+      <c r="L100" s="35"/>
+      <c r="M100" s="31"/>
+      <c r="N100" s="35"/>
+      <c r="P100" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q100" s="6"/>
+      <c r="R100" s="28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="101" spans="5:18" ht="17" thickBot="1">
+      <c r="E101" t="s">
+        <v>47</v>
+      </c>
+      <c r="L101" s="35"/>
+      <c r="M101" s="31"/>
+      <c r="N101" s="35"/>
+      <c r="P101" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q101" s="6"/>
+      <c r="R101" s="29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="102" spans="5:18">
+      <c r="E102" t="s">
+        <v>15</v>
+      </c>
+      <c r="L102" s="35"/>
+      <c r="M102" s="31"/>
+      <c r="N102" s="35"/>
+      <c r="P102" s="30"/>
+      <c r="Q102" s="6"/>
+      <c r="R102" s="52" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="103" spans="5:18">
+      <c r="E103" t="s">
+        <v>29</v>
+      </c>
+      <c r="L103" s="31"/>
+      <c r="M103" s="31"/>
+      <c r="N103" s="35"/>
+    </row>
+    <row r="104" spans="5:18">
+      <c r="E104" t="s">
+        <v>34</v>
+      </c>
+      <c r="L104" s="31"/>
+      <c r="M104" s="31"/>
+      <c r="N104" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3003,415 +3722,592 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B27E8B7A-08BA-F74C-8624-70FCAC51FE0F}">
-  <dimension ref="A1:T35"/>
+  <dimension ref="A1:X55"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:J8"/>
+    <sheetView topLeftCell="G1" zoomScale="125" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="R30" sqref="R30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="10" width="10.83203125" style="41"/>
-    <col min="11" max="11" width="5.6640625" style="41" customWidth="1"/>
-    <col min="12" max="12" width="18.83203125" style="49" customWidth="1"/>
-    <col min="13" max="13" width="2.83203125" style="41" customWidth="1"/>
-    <col min="14" max="14" width="18.83203125" style="41" customWidth="1"/>
-    <col min="15" max="15" width="2.83203125" style="41" customWidth="1"/>
-    <col min="16" max="16" width="18.83203125" style="49" customWidth="1"/>
-    <col min="17" max="17" width="2.83203125" style="41" customWidth="1"/>
-    <col min="18" max="18" width="18.83203125" style="41" customWidth="1"/>
-    <col min="19" max="19" width="2.83203125" style="41" customWidth="1"/>
-    <col min="20" max="20" width="18.83203125" style="49" customWidth="1"/>
-    <col min="21" max="16384" width="10.83203125" style="41"/>
+    <col min="1" max="10" width="10.83203125" style="39"/>
+    <col min="11" max="11" width="2.83203125" style="39" customWidth="1"/>
+    <col min="12" max="12" width="18.83203125" style="48" customWidth="1"/>
+    <col min="13" max="13" width="2.83203125" style="39" customWidth="1"/>
+    <col min="14" max="14" width="18.83203125" style="48" customWidth="1"/>
+    <col min="15" max="15" width="2.83203125" style="48" customWidth="1"/>
+    <col min="16" max="16" width="18.83203125" style="48" customWidth="1"/>
+    <col min="17" max="17" width="2.83203125" style="39" customWidth="1"/>
+    <col min="18" max="18" width="18.83203125" style="39" customWidth="1"/>
+    <col min="19" max="19" width="2.83203125" style="39" customWidth="1"/>
+    <col min="20" max="20" width="18.83203125" style="48" customWidth="1"/>
+    <col min="21" max="21" width="2.83203125" style="39" customWidth="1"/>
+    <col min="22" max="22" width="18.83203125" style="39" customWidth="1"/>
+    <col min="23" max="23" width="2.83203125" style="39" customWidth="1"/>
+    <col min="24" max="24" width="18.83203125" style="48" customWidth="1"/>
+    <col min="25" max="25" width="3.6640625" style="39" customWidth="1"/>
+    <col min="26" max="16384" width="10.83203125" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="17" thickBot="1">
-      <c r="G1" s="41" t="s">
+    <row r="1" spans="1:24" ht="17" thickBot="1">
+      <c r="G1" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="42">
+      <c r="H1" s="40">
         <f>SUMPRODUCT(E2:H2,E4:H4)</f>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20">
-      <c r="A2" s="41" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
+      <c r="A2" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="39">
+        <v>7</v>
+      </c>
+      <c r="F2" s="39">
+        <v>9</v>
+      </c>
+      <c r="G2" s="39">
+        <v>1</v>
+      </c>
+      <c r="H2" s="39">
+        <v>6</v>
+      </c>
+      <c r="V2" s="25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
+      <c r="E3" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="V3" s="45" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
+      <c r="E4" s="43">
+        <v>0</v>
+      </c>
+      <c r="F4" s="43">
+        <v>3</v>
+      </c>
+      <c r="G4" s="43">
+        <v>0</v>
+      </c>
+      <c r="H4" s="43">
+        <v>0</v>
+      </c>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="V4" s="45" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
+      <c r="A5" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="V5" s="46" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
+      <c r="A6" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="42">
+        <v>8</v>
+      </c>
+      <c r="F6" s="42">
+        <v>2</v>
+      </c>
+      <c r="G6" s="42">
+        <v>4</v>
+      </c>
+      <c r="H6" s="42">
+        <v>2</v>
+      </c>
+      <c r="I6" s="42">
+        <f>SUMPRODUCT(E6:H6,E4:H4)</f>
+        <v>6</v>
+      </c>
+      <c r="J6" s="42">
+        <v>16</v>
+      </c>
+      <c r="K6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="V6" s="45" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" ht="17" thickBot="1">
+      <c r="A7" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="42">
+        <v>4</v>
+      </c>
+      <c r="F7" s="42">
+        <v>8</v>
+      </c>
+      <c r="G7" s="42">
+        <v>2</v>
+      </c>
+      <c r="H7" s="42">
+        <v>0</v>
+      </c>
+      <c r="I7" s="42">
+        <f>SUMPRODUCT(E7:H7,E4:H4)</f>
+        <v>24</v>
+      </c>
+      <c r="J7" s="42">
+        <v>20</v>
+      </c>
+      <c r="K7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="V7" s="47" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="17" thickBot="1">
+      <c r="A8" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="42">
+        <v>7</v>
+      </c>
+      <c r="F8" s="42">
+        <v>0</v>
+      </c>
+      <c r="G8" s="42">
+        <v>6</v>
+      </c>
+      <c r="H8" s="42">
+        <v>2</v>
+      </c>
+      <c r="I8" s="42">
+        <f>SUMPRODUCT(E8:H8,E4:H4)</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="42">
+        <v>11</v>
+      </c>
+      <c r="K8" s="42"/>
+      <c r="M8" s="42"/>
+    </row>
+    <row r="9" spans="1:24">
+      <c r="A9" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="T9" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="X9" s="86" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
+      <c r="A10" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="T10" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="X10" s="49" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
+      <c r="T11" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="X11" s="53" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
+      <c r="T12" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="X12" s="53" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
+      <c r="T13" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="X13" s="53" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
+      <c r="T14" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="X14" s="53" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="17" thickBot="1">
+      <c r="T15" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="X15" s="54" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" ht="17" thickBot="1">
+      <c r="X16" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="41">
-        <v>7</v>
-      </c>
-      <c r="F2" s="41">
-        <v>9</v>
-      </c>
-      <c r="G2" s="41">
-        <v>1</v>
-      </c>
-      <c r="H2" s="41">
-        <v>6</v>
-      </c>
-      <c r="R2" s="24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20">
-      <c r="E3" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="R3" s="46" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="E4" s="44">
-        <v>1</v>
-      </c>
-      <c r="F4" s="44">
-        <v>2</v>
-      </c>
-      <c r="G4" s="44">
-        <v>0</v>
-      </c>
-      <c r="H4" s="44">
-        <v>2</v>
-      </c>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="R4" s="46" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="R5" s="47" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" s="41" t="s">
+    </row>
+    <row r="17" spans="8:20">
+      <c r="R17" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="T17" s="86" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="8:20">
+      <c r="R18" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="T18" s="55" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="8:20">
+      <c r="R19" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="T19" s="53" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="8:20">
+      <c r="R20" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="T20" s="53" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="8:20">
+      <c r="R21" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="T21" s="53" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="8:20">
+      <c r="R22" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="T22" s="53" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="8:20">
+      <c r="R23" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="T23" s="53" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="8:20" ht="17" thickBot="1">
+      <c r="R24" s="57" t="s">
+        <v>75</v>
+      </c>
+      <c r="T24" s="54" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="8:20">
+      <c r="T25" s="52" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="8:20" ht="17" thickBot="1"/>
+    <row r="27" spans="8:20">
+      <c r="P27" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="R27" s="64" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="8:20">
+      <c r="P28" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="R28" s="61" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="8:20">
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="44"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="58"/>
+      <c r="M29" s="44"/>
+      <c r="N29" s="58"/>
+      <c r="O29" s="58"/>
+      <c r="P29" s="59" t="s">
+        <v>71</v>
+      </c>
+      <c r="R29" s="62" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="8:20">
+      <c r="H30" s="44"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="44"/>
+      <c r="K30" s="44"/>
+      <c r="L30" s="58"/>
+      <c r="M30" s="44"/>
+      <c r="N30" s="58"/>
+      <c r="O30" s="58"/>
+      <c r="P30" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="R30" s="62" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="8:20">
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="44"/>
+      <c r="K31" s="44"/>
+      <c r="L31" s="58"/>
+      <c r="M31" s="44"/>
+      <c r="N31" s="58"/>
+      <c r="O31" s="58"/>
+      <c r="P31" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="R31" s="62" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="8:20">
+      <c r="H32" s="44"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="44"/>
+      <c r="K32" s="44"/>
+      <c r="L32" s="58"/>
+      <c r="M32" s="44"/>
+      <c r="N32" s="58"/>
+      <c r="O32" s="58"/>
+      <c r="P32" s="87" t="s">
+        <v>66</v>
+      </c>
+      <c r="R32" s="62" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="8:18">
+      <c r="H33" s="44"/>
+      <c r="I33" s="44"/>
+      <c r="J33" s="44"/>
+      <c r="K33" s="44"/>
+      <c r="L33" s="58"/>
+      <c r="M33" s="44"/>
+      <c r="N33" s="58"/>
+      <c r="O33" s="58"/>
+      <c r="P33" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="R33" s="62" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="8:18" ht="17" thickBot="1">
+      <c r="P34" s="60" t="s">
+        <v>75</v>
+      </c>
+      <c r="R34" s="63" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="8:18">
+      <c r="R35" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="E6" s="43">
-        <v>8</v>
-      </c>
-      <c r="F6" s="43">
-        <v>2</v>
-      </c>
-      <c r="G6" s="43">
-        <v>4</v>
-      </c>
-      <c r="H6" s="43">
-        <v>2</v>
-      </c>
-      <c r="I6" s="43">
-        <f>SUMPRODUCT(E6:H6,E4:H4)</f>
-        <v>16</v>
-      </c>
-      <c r="J6" s="43">
-        <v>16</v>
-      </c>
-      <c r="R6" s="46" t="s">
+    </row>
+    <row r="36" spans="8:18" ht="17" thickBot="1"/>
+    <row r="37" spans="8:18">
+      <c r="N37" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" s="86" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" spans="8:18">
+      <c r="N38" s="87" t="s">
+        <v>41</v>
+      </c>
+      <c r="P38" s="87" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="8:18">
+      <c r="N39" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="P39" s="53" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="8:18">
+      <c r="N40" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="P40" s="53" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="41" spans="8:18">
+      <c r="N41" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="P41" s="53" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="8:18">
+      <c r="N42" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="P42" s="53" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="8:18">
+      <c r="N43" s="50" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" ht="17" thickBot="1">
-      <c r="A7" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="E7" s="43">
-        <v>4</v>
-      </c>
-      <c r="F7" s="43">
-        <v>8</v>
-      </c>
-      <c r="G7" s="43">
-        <v>2</v>
-      </c>
-      <c r="H7" s="43">
-        <v>0</v>
-      </c>
-      <c r="I7" s="43">
-        <f>SUMPRODUCT(E7:H7,E4:H4)</f>
-        <v>20</v>
-      </c>
-      <c r="J7" s="43">
-        <v>20</v>
-      </c>
-      <c r="R7" s="48" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="17" thickBot="1">
-      <c r="A8" s="41" t="s">
-        <v>60</v>
-      </c>
-      <c r="E8" s="43">
-        <v>7</v>
-      </c>
-      <c r="F8" s="43">
-        <v>0</v>
-      </c>
-      <c r="G8" s="43">
-        <v>6</v>
-      </c>
-      <c r="H8" s="43">
-        <v>2</v>
-      </c>
-      <c r="I8" s="43">
-        <f>SUMPRODUCT(E8:H8,E4:H4)</f>
-        <v>11</v>
-      </c>
-      <c r="J8" s="43">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="P9" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="T9" s="27" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" s="41" t="s">
-        <v>62</v>
-      </c>
-      <c r="P10" s="50" t="s">
+      <c r="P43" s="53" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="8:18" ht="17" thickBot="1">
+      <c r="N44" s="88" t="s">
+        <v>67</v>
+      </c>
+      <c r="P44" s="54" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="8:18">
+      <c r="P45" s="52" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="46" spans="8:18" ht="17" thickBot="1"/>
+    <row r="47" spans="8:18">
+      <c r="L47" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="N47" s="86" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48" spans="8:18">
+      <c r="L48" s="89" t="s">
+        <v>71</v>
+      </c>
+      <c r="N48" s="89" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="12:14">
+      <c r="L49" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="T10" s="50" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="P11" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="T11" s="54" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="P12" s="51" t="s">
-        <v>45</v>
-      </c>
-      <c r="T12" s="54" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="P13" s="51" t="s">
+      <c r="N49" s="53" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="50" spans="12:14">
+      <c r="L50" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="N50" s="53" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" spans="12:14">
+      <c r="L51" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="N51" s="53" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="52" spans="12:14">
+      <c r="L52" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="T13" s="54" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="P14" s="51" t="s">
+      <c r="N52" s="53" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53" spans="12:14">
+      <c r="L53" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="T14" s="54" t="s">
+      <c r="N53" s="53" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="17" thickBot="1">
-      <c r="P15" s="52" t="s">
-        <v>65</v>
-      </c>
-      <c r="T15" s="55" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="17" thickBot="1">
-      <c r="T16" s="53" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="8:16">
-      <c r="N17" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="P17" s="27" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="8:16">
-      <c r="N18" s="56" t="s">
-        <v>69</v>
-      </c>
-      <c r="P18" s="56" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="8:16">
-      <c r="N19" s="51" t="s">
-        <v>41</v>
-      </c>
-      <c r="P19" s="54" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="8:16">
-      <c r="N20" s="51" t="s">
-        <v>71</v>
-      </c>
-      <c r="P20" s="54" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="21" spans="8:16">
-      <c r="N21" s="57" t="s">
-        <v>72</v>
-      </c>
-      <c r="P21" s="54" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="8:16">
-      <c r="N22" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="P22" s="54" t="s">
+    <row r="54" spans="12:14" ht="17" thickBot="1">
+      <c r="L54" s="57" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="23" spans="8:16">
-      <c r="N23" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="P23" s="54" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="8:16" ht="17" thickBot="1">
-      <c r="N24" s="58" t="s">
-        <v>73</v>
-      </c>
-      <c r="P24" s="55" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="25" spans="8:16">
-      <c r="P25" s="53" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="8:16" ht="17" thickBot="1"/>
-    <row r="27" spans="8:16">
-      <c r="L27" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="N27" s="64" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="8:16">
-      <c r="L28" s="57" t="s">
-        <v>77</v>
-      </c>
-      <c r="N28" s="61" t="s">
+      <c r="N54" s="54" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="8:16">
-      <c r="H29" s="45"/>
-      <c r="I29" s="45"/>
-      <c r="J29" s="45"/>
-      <c r="K29" s="45"/>
-      <c r="L29" s="59" t="s">
-        <v>69</v>
-      </c>
-      <c r="N29" s="62" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="30" spans="8:16">
-      <c r="H30" s="45"/>
-      <c r="I30" s="45"/>
-      <c r="J30" s="45"/>
-      <c r="K30" s="45"/>
-      <c r="L30" s="59" t="s">
-        <v>79</v>
-      </c>
-      <c r="N30" s="62" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="31" spans="8:16">
-      <c r="H31" s="45"/>
-      <c r="I31" s="45"/>
-      <c r="J31" s="45"/>
-      <c r="K31" s="45"/>
-      <c r="L31" s="59" t="s">
-        <v>45</v>
-      </c>
-      <c r="N31" s="62" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="8:16">
-      <c r="H32" s="45"/>
-      <c r="I32" s="45"/>
-      <c r="J32" s="45"/>
-      <c r="K32" s="45"/>
-      <c r="L32" s="59" t="s">
-        <v>64</v>
-      </c>
-      <c r="N32" s="62" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="8:14">
-      <c r="H33" s="45"/>
-      <c r="I33" s="45"/>
-      <c r="J33" s="45"/>
-      <c r="K33" s="45"/>
-      <c r="L33" s="59" t="s">
-        <v>29</v>
-      </c>
-      <c r="N33" s="62" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="34" spans="8:14" ht="17" thickBot="1">
-      <c r="L34" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="N34" s="63" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="35" spans="8:14">
-      <c r="N35" s="66" t="s">
-        <v>56</v>
+    <row r="55" spans="12:14">
+      <c r="N55" s="52" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -3422,16 +4318,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3359F06-0202-C44E-B102-606A182255A4}">
-  <dimension ref="A1:V46"/>
+  <dimension ref="A1:V51"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView topLeftCell="E1" zoomScale="131" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
+    <col min="3" max="3" width="4" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" customWidth="1"/>
     <col min="8" max="8" width="4.5" customWidth="1"/>
-    <col min="13" max="13" width="2.83203125" customWidth="1"/>
+    <col min="11" max="11" width="3.83203125" customWidth="1"/>
+    <col min="12" max="12" width="18.83203125" style="9" customWidth="1"/>
+    <col min="13" max="13" width="2.83203125" style="9" customWidth="1"/>
     <col min="14" max="14" width="18.83203125" style="9" customWidth="1"/>
     <col min="15" max="15" width="2.83203125" customWidth="1"/>
     <col min="16" max="16" width="18.83203125" style="9" customWidth="1"/>
@@ -3440,126 +4340,126 @@
     <col min="19" max="19" width="2.83203125" customWidth="1"/>
     <col min="20" max="20" width="18.83203125" style="9" customWidth="1"/>
     <col min="21" max="21" width="2.83203125" customWidth="1"/>
-    <col min="22" max="22" width="18.83203125" customWidth="1"/>
-    <col min="23" max="23" width="2.83203125" customWidth="1"/>
+    <col min="22" max="22" width="18.83203125" style="9" customWidth="1"/>
+    <col min="23" max="23" width="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="17" thickBot="1">
-      <c r="A1" s="40" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="I1" s="41" t="s">
+      <c r="A1" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="I1" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="42">
+      <c r="J1" s="40">
         <f>SUMPRODUCT(E2:G2,E4:G4)</f>
-        <v>18.5</v>
+        <v>17.399999999999999</v>
       </c>
     </row>
     <row r="2" spans="1:22">
-      <c r="E2" s="41">
+      <c r="E2" s="39">
         <v>3</v>
       </c>
-      <c r="F2" s="41">
+      <c r="F2" s="39">
         <v>4</v>
       </c>
-      <c r="G2" s="41">
+      <c r="G2" s="39">
         <v>3</v>
       </c>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
       <c r="R2" s="17" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:22">
-      <c r="E3" s="43" t="s">
+      <c r="E3" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="43" t="s">
+      <c r="F3" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="43" t="s">
+      <c r="G3" s="42" t="s">
         <v>9</v>
       </c>
       <c r="H3" s="65"/>
-      <c r="I3" s="43" t="s">
+      <c r="I3" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="43" t="s">
+      <c r="J3" s="42" t="s">
         <v>12</v>
       </c>
       <c r="R3" s="18" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:22">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="44">
-        <v>3.5</v>
-      </c>
-      <c r="F4" s="44">
+      <c r="E4" s="43">
+        <v>3</v>
+      </c>
+      <c r="F4" s="43">
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="G4" s="43">
         <v>2</v>
       </c>
-      <c r="G4" s="44">
-        <v>0</v>
-      </c>
       <c r="H4" s="65"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
       <c r="R4" s="21" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:22">
-      <c r="A5" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="E5" s="43">
+      <c r="A5" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" s="42">
         <v>3</v>
       </c>
-      <c r="F5" s="43">
+      <c r="F5" s="42">
         <v>2</v>
       </c>
-      <c r="G5" s="43">
+      <c r="G5" s="42">
         <v>2</v>
       </c>
       <c r="H5" s="65"/>
       <c r="I5" s="9">
         <f>SUMPRODUCT(E5:G5,E4:G4)</f>
-        <v>14.5</v>
+        <v>14.2</v>
       </c>
       <c r="J5" s="65">
         <v>13</v>
       </c>
       <c r="R5" s="18" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="17" thickBot="1">
-      <c r="A6" s="40" t="s">
-        <v>84</v>
-      </c>
-      <c r="E6" s="43">
+      <c r="A6" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="42">
         <v>2</v>
       </c>
-      <c r="F6" s="43">
+      <c r="F6" s="42">
         <v>5</v>
       </c>
-      <c r="G6" s="43">
+      <c r="G6" s="42">
         <v>3</v>
       </c>
       <c r="H6" s="65"/>
-      <c r="I6" s="49">
+      <c r="I6" s="48">
         <f>SUMPRODUCT(E6:G6,E4:G4)</f>
-        <v>17</v>
-      </c>
-      <c r="J6" s="43">
+        <v>15</v>
+      </c>
+      <c r="J6" s="42">
         <v>15</v>
       </c>
       <c r="R6" s="20" t="s">
@@ -3567,37 +4467,37 @@
       </c>
     </row>
     <row r="7" spans="1:22" ht="17" thickBot="1">
-      <c r="A7" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="E7" s="43">
+      <c r="A7" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" s="42">
         <v>2</v>
       </c>
-      <c r="F7" s="43">
+      <c r="F7" s="42">
         <v>1</v>
       </c>
-      <c r="G7" s="43">
+      <c r="G7" s="42">
         <v>2</v>
       </c>
       <c r="H7" s="65"/>
-      <c r="I7" s="49">
+      <c r="I7" s="48">
         <f>SUMPRODUCT(E7:G7,E4:G4)</f>
+        <v>10.6</v>
+      </c>
+      <c r="J7" s="42">
         <v>9</v>
       </c>
-      <c r="J7" s="43">
-        <v>9</v>
-      </c>
     </row>
     <row r="8" spans="1:22">
-      <c r="A8" s="40" t="s">
-        <v>86</v>
-      </c>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
+      <c r="A8" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
       <c r="H8" s="65"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
       <c r="P8" s="17" t="s">
         <v>17</v>
       </c>
@@ -3606,46 +4506,46 @@
       </c>
     </row>
     <row r="9" spans="1:22">
-      <c r="A9" s="40" t="s">
-        <v>87</v>
+      <c r="A9" s="38" t="s">
+        <v>89</v>
       </c>
       <c r="P9" s="21" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="T9" s="21" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:22">
       <c r="P10" s="18" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="T10" s="18" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:22">
       <c r="P11" s="18" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="T11" s="18" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:22">
       <c r="P12" s="19" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="T12" s="19" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="17" thickBot="1">
       <c r="P13" s="20" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="T13" s="20" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="17" thickBot="1"/>
@@ -3659,41 +4559,41 @@
       <c r="T15" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="V15" s="70" t="s">
+      <c r="V15" s="90" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:22">
       <c r="N16" s="19" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P16" s="19" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="T16" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="V16" s="22" t="s">
+      <c r="V16" s="19" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="17" spans="14:22">
+    <row r="17" spans="12:22">
       <c r="N17" s="18" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="P17" s="18" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="T17" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="V17" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="18" spans="14:22">
+        <v>94</v>
+      </c>
+      <c r="V17" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="12:22">
       <c r="N18" s="18" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="P18" s="18" t="s">
         <v>106</v>
@@ -3701,27 +4601,27 @@
       <c r="T18" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="V18" s="7" t="s">
+      <c r="V18" s="11" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="19" spans="14:22">
+    <row r="19" spans="12:22">
       <c r="N19" s="18" t="s">
-        <v>104</v>
+        <v>156</v>
       </c>
       <c r="P19" s="18" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="T19" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="V19" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="20" spans="14:22">
+        <v>100</v>
+      </c>
+      <c r="V19" s="11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="20" spans="12:22">
       <c r="N20" s="18" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="P20" s="18" t="s">
         <v>107</v>
@@ -3729,102 +4629,461 @@
       <c r="T20" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="V20" s="7" t="s">
+      <c r="V20" s="11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="14:22" ht="17" thickBot="1">
-      <c r="N21" s="68" t="s">
-        <v>105</v>
+    <row r="21" spans="12:22" ht="17" thickBot="1">
+      <c r="N21" s="24" t="s">
+        <v>157</v>
       </c>
       <c r="P21" s="69" t="s">
         <v>108</v>
       </c>
-      <c r="T21" s="20" t="s">
+      <c r="T21" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="V21" s="8" t="s">
+      <c r="V21" s="12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="14:22">
-      <c r="V22" s="71" t="s">
+    <row r="22" spans="12:22">
+      <c r="V22" s="78" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="23" spans="12:22" ht="17" thickBot="1"/>
+    <row r="24" spans="12:22">
+      <c r="L24" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="N24" s="64" t="s">
+        <v>54</v>
+      </c>
+      <c r="R24" s="64" t="s">
+        <v>55</v>
+      </c>
+      <c r="T24" s="17" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="40" spans="2:8">
-      <c r="B40" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F40" t="s">
-        <v>53</v>
-      </c>
-      <c r="H40" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8">
-      <c r="B41" s="1" t="s">
+    <row r="25" spans="12:22">
+      <c r="L25" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="N25" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="F41" s="3" t="s">
+      <c r="R25" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="T25" s="10" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="26" spans="12:22">
+      <c r="L26" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="N26" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="R26" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="T26" s="18" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27" spans="12:22">
+      <c r="L27" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="N27" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="R27" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="T27" s="18" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="28" spans="12:22">
+      <c r="L28" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="N28" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="R28" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="T28" s="26" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="29" spans="12:22">
+      <c r="L29" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="N29" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="R29" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="T29" s="80" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="30" spans="12:22" ht="17" thickBot="1">
+      <c r="L30" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="N30" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8">
-      <c r="B42" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="F42" t="s">
-        <v>102</v>
-      </c>
-      <c r="H42" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8">
-      <c r="B43" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D43" s="6" t="s">
+      <c r="R30" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="T30" s="20" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="31" spans="12:22">
+      <c r="L31" s="71" t="s">
+        <v>131</v>
+      </c>
+      <c r="N31" s="71" t="s">
+        <v>131</v>
+      </c>
+      <c r="R31" s="85" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="32" spans="12:22" ht="17" thickBot="1">
+      <c r="N32" s="66" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="T33" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="V33" s="17" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="T34" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="V34" s="26" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="T35" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="V35" s="18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="T36" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="V36" s="18" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="T37" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="V37" s="18" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="T38" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="V38" s="18" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" ht="17" thickBot="1">
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="T39" s="91" t="s">
+        <v>98</v>
+      </c>
+      <c r="V39" s="20" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22">
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="V40" s="85" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" ht="17" thickBot="1">
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+    </row>
+    <row r="42" spans="1:22">
+      <c r="A42" s="6"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="R42" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="T42" s="64" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22">
+      <c r="A43" s="6"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="R43" s="81" t="s">
+        <v>114</v>
+      </c>
+      <c r="T43" s="81" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22">
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="R44" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="T44" s="11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22">
+      <c r="A45" s="6"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="R45" s="18" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="44" spans="2:8">
-      <c r="B44" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D44" s="6" t="s">
+      <c r="T45" s="11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22">
+      <c r="A46" s="6"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="R46" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="T46" s="11" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="45" spans="2:8">
-      <c r="B45" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8">
-      <c r="B46" s="1" t="s">
+    <row r="47" spans="1:22">
+      <c r="A47" s="6"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="R47" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="T47" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" ht="17" thickBot="1">
+      <c r="A48" s="6"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="R48" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="D46" s="6" t="s">
-        <v>119</v>
-      </c>
+      <c r="T48" s="12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20">
+      <c r="A49" s="6"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
+      <c r="T49" s="71" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20">
+      <c r="A50" s="6"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="6"/>
+    </row>
+    <row r="51" spans="1:20">
+      <c r="A51" s="6"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3834,15 +5093,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D490FA9-758B-DC4C-B261-6C467E6A72CA}">
-  <dimension ref="A1:V24"/>
+  <dimension ref="A1:V26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="140" workbookViewId="0">
-      <selection activeCell="S29" sqref="S29"/>
+    <sheetView tabSelected="1" zoomScale="123" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1:S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="13" max="13" width="5.83203125" customWidth="1"/>
+    <col min="2" max="2" width="3.6640625" customWidth="1"/>
+    <col min="3" max="3" width="2.83203125" customWidth="1"/>
+    <col min="4" max="4" width="8.5" customWidth="1"/>
+    <col min="11" max="11" width="3.83203125" customWidth="1"/>
+    <col min="12" max="12" width="3.6640625" customWidth="1"/>
+    <col min="13" max="13" width="3.5" customWidth="1"/>
     <col min="14" max="14" width="18.83203125" style="9" customWidth="1"/>
     <col min="15" max="15" width="2.83203125" style="9" customWidth="1"/>
     <col min="16" max="16" width="18.83203125" style="9" customWidth="1"/>
@@ -3856,327 +5120,410 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="17" thickBot="1">
-      <c r="A1" s="40"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="I1" s="41" t="s">
+      <c r="A1" s="41"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="42">
+      <c r="J1" s="40">
         <f>SUMPRODUCT(E2:G2,E5:G5)</f>
+        <v>11.5</v>
+      </c>
+      <c r="K1" s="39"/>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" s="41" t="s">
+        <v>165</v>
+      </c>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="42">
+        <v>2</v>
+      </c>
+      <c r="F2" s="42">
+        <v>3</v>
+      </c>
+      <c r="G2" s="42">
+        <v>5</v>
+      </c>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="R2" s="64" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
-      <c r="A2" s="40" t="s">
-        <v>123</v>
-      </c>
-      <c r="E2" s="43">
+    <row r="3" spans="1:20">
+      <c r="A3" s="41"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="R3" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" s="39"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="65"/>
+      <c r="I4" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="39"/>
+      <c r="R4" s="11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="43">
+        <v>2.0000000000000004</v>
+      </c>
+      <c r="F5" s="43">
+        <v>2.4999999999999996</v>
+      </c>
+      <c r="G5" s="43">
+        <v>0</v>
+      </c>
+      <c r="H5" s="65"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="39"/>
+      <c r="R5" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="17" thickBot="1">
+      <c r="A6" s="41" t="s">
+        <v>166</v>
+      </c>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="42">
+        <v>1</v>
+      </c>
+      <c r="F6" s="42">
         <v>2</v>
       </c>
-      <c r="F2" s="43">
+      <c r="G6" s="42">
         <v>3</v>
       </c>
-      <c r="G2" s="43">
-        <v>5</v>
-      </c>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="R2" s="72" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20">
-      <c r="A3" s="40"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="R3" s="11" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="E4" s="43" t="s">
+      <c r="H6" s="65"/>
+      <c r="I6" s="48">
+        <f>SUMPRODUCT(E6:G6,E5:G5)</f>
         <v>7</v>
-      </c>
-      <c r="F4" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="65"/>
-      <c r="I4" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="R4" s="11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="44">
-        <v>2</v>
-      </c>
-      <c r="F5" s="44">
-        <v>3</v>
-      </c>
-      <c r="G5" s="44">
-        <v>0</v>
-      </c>
-      <c r="H5" s="65"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
-      <c r="R5" s="21" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" ht="17" thickBot="1">
-      <c r="A6" s="40" t="s">
-        <v>124</v>
-      </c>
-      <c r="E6" s="43">
-        <v>1</v>
-      </c>
-      <c r="F6" s="43">
-        <v>2</v>
-      </c>
-      <c r="G6" s="43">
-        <v>3</v>
-      </c>
-      <c r="H6" s="65"/>
-      <c r="I6" s="9">
-        <f>SUMPRODUCT(E6:G6,E5:G5)</f>
-        <v>8</v>
       </c>
       <c r="J6" s="65">
         <v>7</v>
       </c>
+      <c r="K6" s="39"/>
       <c r="R6" s="12" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:20">
-      <c r="A7" s="40"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
+      <c r="A7" s="41" t="s">
+        <v>167</v>
+      </c>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="42">
+        <v>3</v>
+      </c>
+      <c r="F7" s="42">
+        <v>2</v>
+      </c>
+      <c r="G7" s="42">
+        <v>3</v>
+      </c>
       <c r="H7" s="65"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="65"/>
-      <c r="R7" s="35" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="17" thickBot="1">
-      <c r="A8" s="40" t="s">
+      <c r="I7" s="48">
+        <f>SUMPRODUCT(E7:G7,E5:G5)</f>
+        <v>11</v>
+      </c>
+      <c r="J7" s="42">
+        <v>11</v>
+      </c>
+      <c r="K7" s="39"/>
+      <c r="R7" s="83" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" s="39"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="39"/>
+    </row>
+    <row r="10" spans="1:20" ht="17" thickBot="1">
+      <c r="A10" s="41" t="s">
+        <v>169</v>
+      </c>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="39"/>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="41"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="P11" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="T11" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" s="39"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="39"/>
+      <c r="P12" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="T12" s="21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" s="39"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="39"/>
+      <c r="P13" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="T13" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="E8" s="43">
-        <v>3</v>
-      </c>
-      <c r="F8" s="43">
-        <v>2</v>
-      </c>
-      <c r="G8" s="43">
-        <v>3</v>
-      </c>
-      <c r="H8" s="65"/>
-      <c r="I8" s="49">
-        <f>SUMPRODUCT(E8:G8,E5:G5)</f>
-        <v>12</v>
-      </c>
-      <c r="J8" s="43">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" s="40" t="s">
-        <v>126</v>
-      </c>
-      <c r="H9" s="65"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="43"/>
-      <c r="P9" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="T9" s="17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" s="40" t="s">
+    </row>
+    <row r="14" spans="1:20">
+      <c r="P14" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="T14" s="19" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="P15" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="T15" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="17" thickBot="1">
+      <c r="P16" s="73" t="s">
+        <v>124</v>
+      </c>
+      <c r="T16" s="20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="14:22" ht="17" thickBot="1"/>
+    <row r="19" spans="14:22">
+      <c r="N19" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="P19" s="72" t="s">
+        <v>25</v>
+      </c>
+      <c r="T19" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="V19" s="17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="14:22">
+      <c r="N20" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="P20" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="T20" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="43"/>
-      <c r="P10" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="T10" s="21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" s="40"/>
-      <c r="P11" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="T11" s="18" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="P12" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="T12" s="19" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="P13" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="T13" s="18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" ht="17" thickBot="1">
-      <c r="P14" s="73" t="s">
-        <v>130</v>
-      </c>
-      <c r="T14" s="20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="17" thickBot="1"/>
-    <row r="17" spans="14:22">
-      <c r="N17" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="P17" s="72" t="s">
-        <v>25</v>
-      </c>
-      <c r="T17" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="V17" s="17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="14:22">
-      <c r="N18" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="P18" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="T18" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="V18" s="19" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="19" spans="14:22">
-      <c r="N19" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="P19" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="T19" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="V19" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="14:22">
-      <c r="N20" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="P20" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="T20" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="V20" s="11" t="s">
-        <v>136</v>
+      <c r="V20" s="19" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="14:22">
       <c r="N21" s="11" t="s">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="P21" s="11" t="s">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="T21" s="11" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="V21" s="11" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="14:22">
       <c r="N22" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="P22" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="T22" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="V22" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="23" spans="14:22">
+      <c r="N23" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="P23" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="T23" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="V23" s="11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="14:22">
+      <c r="N24" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="P22" s="11" t="s">
+      <c r="P24" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="T22" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="V22" s="11" t="s">
+      <c r="T24" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="V24" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="14:22" ht="17" thickBot="1">
-      <c r="N23" s="12" t="s">
+    <row r="25" spans="14:22" ht="17" thickBot="1">
+      <c r="N25" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="P23" s="12" t="s">
+      <c r="P25" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="T23" s="12" t="s">
+      <c r="T25" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="V23" s="12" t="s">
+      <c r="V25" s="12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="14:22">
-      <c r="N24" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="P24" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="T24" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="V24" s="9" t="s">
-        <v>137</v>
+    <row r="26" spans="14:22">
+      <c r="N26" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="P26" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="T26" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="V26" s="9" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>